--- a/fotosieve/LC3/steep/LC3 Steep.xlsx
+++ b/fotosieve/LC3/steep/LC3 Steep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\flood_project\fotosieve\LC3\steep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\fotosieve\LC3\steep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCB44D-7D69-4162-A546-1EFD56C88FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CAB84C-783E-49DD-AE88-F75328F4AB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>2000_4000</t>
   </si>
@@ -140,6 +140,9 @@
   <si>
     <t>grain diameter (mm)</t>
   </si>
+  <si>
+    <t>corrected diameter a (mm)</t>
+  </si>
 </sst>
 </file>
 
@@ -174,13 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +484,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>1.4625635531203889</v>
       </c>
       <c r="H6">
@@ -490,7 +492,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>3.2559508701774642</v>
       </c>
       <c r="H7">
@@ -498,7 +500,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>3.9674418602687727</v>
       </c>
       <c r="H8">
@@ -506,7 +508,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>0.7637777592807109</v>
       </c>
       <c r="H9">
@@ -514,7 +516,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>7.1999369835201499</v>
       </c>
       <c r="H10">
@@ -522,7 +524,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>1.5676257528934872</v>
       </c>
       <c r="H11">
@@ -530,7 +532,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>0.45836438784728523</v>
       </c>
       <c r="H12">
@@ -538,7 +540,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>0.36747336850869777</v>
       </c>
       <c r="H13">
@@ -546,7 +548,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>1.1566615202926696</v>
       </c>
       <c r="D14" t="s">
@@ -566,7 +568,6 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
       <c r="D15" t="s">
         <v>21</v>
       </c>
@@ -586,7 +587,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>1.3272043469010946</v>
       </c>
       <c r="D16" t="s">
@@ -608,7 +609,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>0.66018154369049287</v>
       </c>
       <c r="D17" t="s">
@@ -630,7 +631,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>0.79700673409266753</v>
       </c>
       <c r="D18" t="s">
@@ -652,7 +653,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>5.378207305594052</v>
       </c>
       <c r="D19" t="s">
@@ -674,7 +675,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>6.4430004837595476</v>
       </c>
       <c r="D20" t="s">
@@ -696,7 +697,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>1.8735277857212063</v>
       </c>
       <c r="D21" t="s">
@@ -718,7 +719,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>1.5549205566418567</v>
       </c>
       <c r="H22">
@@ -726,7 +727,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>1.030098219170658</v>
       </c>
       <c r="H23">
@@ -734,7 +735,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>0.97145885185544034</v>
       </c>
       <c r="H24">
@@ -742,7 +743,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>1.083850972542941</v>
       </c>
       <c r="H25">
@@ -750,7 +751,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>0.53312958117418785</v>
       </c>
       <c r="H26">
@@ -758,7 +759,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>1.6326177183345201</v>
       </c>
       <c r="H27">
@@ -766,7 +767,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>0.79602941130408067</v>
       </c>
       <c r="H28">
@@ -774,7 +775,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>4.9315707912098103</v>
       </c>
       <c r="H29">
@@ -782,7 +783,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>0.49354800823641587</v>
       </c>
       <c r="H30">
@@ -790,7 +791,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>3.0775894612603438</v>
       </c>
       <c r="H31">
@@ -798,7 +799,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>0.74569728769185206</v>
       </c>
       <c r="H32">
@@ -806,7 +807,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>1.3242723785353336</v>
       </c>
       <c r="H33">
@@ -814,7 +815,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>0.64796500883315589</v>
       </c>
       <c r="H34">
@@ -822,7 +823,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>0.66018154369049287</v>
       </c>
       <c r="H35">
@@ -830,7 +831,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>1.4615862303318019</v>
       </c>
       <c r="H36">
@@ -838,7 +839,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>0.50136659054511157</v>
       </c>
       <c r="H37">
@@ -846,7 +847,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>1.0134837317646797</v>
       </c>
       <c r="H38">
@@ -854,7 +855,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>0.81606452847011335</v>
       </c>
       <c r="H39">
@@ -862,7 +863,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>1.6702446456951183</v>
       </c>
       <c r="H40">
@@ -870,7 +871,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>1.0877602636972887</v>
       </c>
       <c r="H41">
@@ -878,7 +879,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>0.67923933806793868</v>
       </c>
       <c r="H42">
@@ -886,7 +887,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>1.1229438840864194</v>
       </c>
       <c r="H43">
@@ -894,7 +895,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>2.3910202022780029</v>
       </c>
       <c r="H44">
@@ -902,7 +903,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>1.1635027798127784</v>
       </c>
       <c r="H45">
@@ -910,7 +911,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46">
         <v>0.21745432046059907</v>
       </c>
       <c r="H46">
@@ -918,7 +919,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47">
         <v>0.70611571475408008</v>
       </c>
       <c r="H47">
@@ -926,7 +927,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48">
         <v>0.98807333926141871</v>
       </c>
       <c r="H48">
@@ -934,7 +935,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49">
         <v>1.0999767985546258</v>
       </c>
       <c r="H49">
@@ -942,7 +943,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50">
         <v>0.29221951378750166</v>
       </c>
       <c r="H50">
@@ -950,7 +951,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51">
         <v>1.0120177475817993</v>
       </c>
       <c r="H51">
@@ -958,7 +959,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52">
         <v>1.3076578911293553</v>
       </c>
       <c r="H52">
@@ -966,7 +967,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53">
         <v>0.29954943470190387</v>
       </c>
       <c r="H53">
@@ -974,7 +975,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54">
         <v>1.2446205712654963</v>
       </c>
       <c r="H54">
@@ -982,7 +983,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55">
         <v>0.32593714999375184</v>
       </c>
       <c r="H55">
@@ -990,7 +991,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56">
         <v>0.86541932929375498</v>
       </c>
       <c r="H56">
@@ -998,7 +999,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57">
         <v>0.5155377709796225</v>
       </c>
       <c r="H57">
@@ -1006,7 +1007,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58">
         <v>0.63477115118723193</v>
       </c>
       <c r="H58">
@@ -1014,7 +1015,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59">
         <v>0.52922029001983995</v>
       </c>
       <c r="H59">
@@ -1022,7 +1023,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60">
         <v>1.8388328267263692</v>
       </c>
       <c r="H60">
@@ -1030,7 +1031,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61">
         <v>0.36600738432581731</v>
       </c>
       <c r="H61">
@@ -1038,7 +1039,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62">
         <v>0.53557288814565518</v>
       </c>
       <c r="H62">
@@ -1046,7 +1047,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63">
         <v>1.9834765994372396</v>
       </c>
       <c r="H63">
@@ -1054,7 +1055,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64">
         <v>0.43441997952690464</v>
       </c>
       <c r="H64">
@@ -1062,7 +1063,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65">
         <v>1.2690536409801703</v>
       </c>
       <c r="H65">
@@ -1070,13 +1071,12 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
       <c r="H66">
         <v>987.81705174410979</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67">
         <v>0.61180406565543832</v>
       </c>
       <c r="H67">
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68">
         <v>1.0423147540279951</v>
       </c>
       <c r="H68">
@@ -1092,7 +1092,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69">
         <v>1.3926849737364211</v>
       </c>
       <c r="H69">
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70">
         <v>0.83072437029891777</v>
       </c>
       <c r="H70">
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71">
         <v>0.76817571182935218</v>
       </c>
       <c r="H71">
@@ -1116,7 +1116,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72">
         <v>3.9000065878562724</v>
       </c>
       <c r="H72">
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73">
         <v>0.67484138551929729</v>
       </c>
       <c r="H73">
@@ -1132,7 +1132,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74">
         <v>0.90402357944293998</v>
       </c>
       <c r="H74">
@@ -1140,7 +1140,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75">
         <v>1.2617237200657681</v>
       </c>
       <c r="H75">
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76">
         <v>0.66995477157636252</v>
       </c>
       <c r="H76">
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77">
         <v>2.2766734360133283</v>
       </c>
       <c r="H77">
@@ -1164,7 +1164,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78">
         <v>2.412521303626916</v>
       </c>
       <c r="H78">
@@ -1172,7 +1172,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="A79">
         <v>1.3516374166157685</v>
       </c>
       <c r="H79">
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80">
         <v>0.54925540718587273</v>
       </c>
       <c r="H80">
@@ -1188,7 +1188,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81">
         <v>1.2822474986260943</v>
       </c>
       <c r="H81">
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82">
         <v>2.7203779820318088</v>
       </c>
       <c r="H82">
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="A83">
         <v>4.3549503459435028</v>
       </c>
       <c r="H83">
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84">
         <v>2.1955556445606104</v>
       </c>
       <c r="H84">
@@ -1220,7 +1220,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85">
         <v>23.533932749174046</v>
       </c>
       <c r="H85">
@@ -1228,7 +1228,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86">
         <v>2.95493545129268</v>
       </c>
       <c r="H86">
@@ -1236,12 +1236,12 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="A87">
         <v>0.6396577651301667</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88">
         <v>0.66164752787337333</v>
       </c>
       <c r="H88">
@@ -1249,7 +1249,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89">
         <v>0.98025475695272302</v>
       </c>
       <c r="H89">
@@ -1257,7 +1257,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90">
         <v>0.79896137966984149</v>
       </c>
       <c r="H90">
@@ -1265,7 +1265,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91">
         <v>0.64014642652446019</v>
       </c>
       <c r="H91">
@@ -1273,7 +1273,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92">
         <v>0.50918517285380727</v>
       </c>
       <c r="H92">
@@ -1281,7 +1281,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93">
         <v>0.47595619804185052</v>
       </c>
       <c r="H93">
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94">
         <v>10.236967549054134</v>
       </c>
       <c r="H94">
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95">
         <v>0.34841557413125196</v>
       </c>
       <c r="H95">
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96">
         <v>0.19350991214021848</v>
       </c>
       <c r="H96">
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="A97">
         <v>0.56538123319755762</v>
       </c>
       <c r="H97">
@@ -1321,7 +1321,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98">
         <v>0.11581275044755501</v>
       </c>
       <c r="H98">
@@ -1329,7 +1329,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="A99">
         <v>0.27120707383288201</v>
       </c>
       <c r="H99">
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100">
         <v>0.57906375223777506</v>
       </c>
       <c r="H100">
@@ -1345,7 +1345,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101">
         <v>4.0334111484983923</v>
       </c>
       <c r="H101">
@@ -1353,7 +1353,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102">
         <v>0.29270817518179515</v>
       </c>
       <c r="H102">
@@ -1361,7 +1361,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103">
         <v>0.31176596955924091</v>
       </c>
       <c r="H103">
@@ -1369,7 +1369,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104">
         <v>4.6007470272731243</v>
       </c>
       <c r="H104">
@@ -1377,7 +1377,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105">
         <v>1.4151633978739211</v>
       </c>
       <c r="H105">
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106">
         <v>4.2914243646853505</v>
       </c>
       <c r="H106">
@@ -1393,7 +1393,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107">
         <v>0.23700077623233831</v>
       </c>
       <c r="H107">
@@ -1401,7 +1401,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108">
         <v>0.63721445815869926</v>
       </c>
       <c r="H108">
@@ -1409,7 +1409,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109">
         <v>0.8761698799682115</v>
       </c>
       <c r="H109">
@@ -1417,7 +1417,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110">
         <v>1.8784143996641411</v>
       </c>
       <c r="H110">
@@ -1425,7 +1425,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="A111">
         <v>1.5793536263565306</v>
       </c>
       <c r="H111">
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112">
         <v>0.42318076745815458</v>
       </c>
       <c r="H112">
@@ -1441,7 +1441,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="A113">
         <v>0.44419320741277429</v>
       </c>
       <c r="H113">
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="A114">
         <v>1.5427040217845196</v>
       </c>
       <c r="H114">
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="A115">
         <v>2.8904321472459404</v>
       </c>
       <c r="H115">
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116">
         <v>1.5505226040932154</v>
       </c>
       <c r="H116">
@@ -1473,7 +1473,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117">
         <v>2.3607231958318069</v>
       </c>
       <c r="H117">
@@ -1481,7 +1481,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118">
         <v>0.30394738725054521</v>
       </c>
       <c r="H118">
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="A119">
         <v>0.44956848275000255</v>
       </c>
       <c r="H119">
@@ -1497,7 +1497,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="A120">
         <v>0.33180108672527364</v>
       </c>
       <c r="H120">
@@ -1505,7 +1505,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121">
         <v>1.1996637229904961</v>
       </c>
       <c r="H121">
@@ -1513,7 +1513,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122">
         <v>0.44517053020136121</v>
       </c>
       <c r="H122">
@@ -1521,7 +1521,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="A123">
         <v>2.1378936000339794</v>
       </c>
       <c r="H123">
@@ -1529,7 +1529,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124">
         <v>1.3262270241125076</v>
       </c>
       <c r="H124">
@@ -1537,7 +1537,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="A125">
         <v>0.97781144998125558</v>
       </c>
       <c r="H125">
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126">
         <v>1.1903791564989199</v>
       </c>
       <c r="H126">
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="A127">
         <v>0.12802928530489202</v>
       </c>
       <c r="H127">
@@ -1561,7 +1561,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128">
         <v>0.65285162277609066</v>
       </c>
       <c r="H128">
@@ -1569,7 +1569,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="A129">
         <v>1.2084596280877786</v>
       </c>
       <c r="H129">
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="A130">
         <v>1.1190345929320715</v>
       </c>
       <c r="H130">
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="A131">
         <v>0.67093209436494949</v>
       </c>
       <c r="H131">
@@ -1593,7 +1593,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="A132">
         <v>7.3128177656019435</v>
       </c>
       <c r="H132">
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="A133">
         <v>0.51944706213397041</v>
       </c>
       <c r="H133">
@@ -1609,12 +1609,12 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="A134">
         <v>1.0902035706687563</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="A135">
         <v>0.34939289691983894</v>
       </c>
       <c r="H135">
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="A136">
         <v>0.78967681317826532</v>
       </c>
       <c r="H136">
@@ -1630,7 +1630,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="A137">
         <v>0.63770311955299275</v>
       </c>
       <c r="H137">
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138">
         <v>1.2827361600203877</v>
       </c>
       <c r="H138">
@@ -1646,7 +1646,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="A139">
         <v>0.9577763328152229</v>
       </c>
       <c r="H139">
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140">
         <v>0.73934468956603683</v>
       </c>
       <c r="H140">
@@ -1662,7 +1662,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="A141">
         <v>0.26632045988994718</v>
       </c>
       <c r="H141">
@@ -1670,7 +1670,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="A142">
         <v>2.5444598800861558</v>
       </c>
       <c r="H142">
@@ -1678,7 +1678,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="A143">
         <v>0.69438784129103659</v>
       </c>
       <c r="H143">
@@ -1686,13 +1686,12 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="3"/>
       <c r="H144">
         <v>595.38906099986173</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="A145">
         <v>0.49696863799647023</v>
       </c>
       <c r="H145">
@@ -1700,7 +1699,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="A146">
         <v>0.97145885185544034</v>
       </c>
       <c r="H146">
@@ -1708,7 +1707,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="A147">
         <v>0.86932862044810277</v>
       </c>
       <c r="H147">
@@ -1716,7 +1715,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="A148">
         <v>1.2333813591967462</v>
       </c>
       <c r="H148">
@@ -1724,7 +1723,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="A149">
         <v>0.39581572937771964</v>
       </c>
       <c r="H149">
@@ -1732,7 +1731,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A150">
         <v>0.84294090515625486</v>
       </c>
       <c r="H150">
@@ -1740,7 +1739,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="A151">
         <v>1.031075541959245</v>
       </c>
       <c r="H151">
@@ -1748,7 +1747,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="A152">
         <v>3.9459407589198596</v>
       </c>
       <c r="H152">
@@ -1756,7 +1755,7 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="A153">
         <v>1.0887375864858757</v>
       </c>
       <c r="H153">
@@ -1764,7 +1763,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="A154">
         <v>2.5943033423040909</v>
       </c>
       <c r="H154">
@@ -1772,7 +1771,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="A155">
         <v>0.34059699182255632</v>
       </c>
       <c r="H155">
@@ -1780,7 +1779,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="A156">
         <v>5.1226373963785621</v>
       </c>
       <c r="H156">
@@ -1788,7 +1787,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="A157">
         <v>0.9499577505065272</v>
       </c>
       <c r="H157">
@@ -1796,7 +1795,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="A158">
         <v>1.869129833172565</v>
       </c>
       <c r="H158">
@@ -1804,12 +1803,12 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="A159">
         <v>4.4228742797502969</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="A160">
         <v>0.67386406273071031</v>
       </c>
       <c r="H160">
@@ -1817,7 +1816,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="A161">
         <v>5.4070383278573679</v>
       </c>
       <c r="H161">
@@ -1825,7 +1824,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162">
         <v>2.9612880494184952</v>
       </c>
       <c r="H162">
@@ -1833,7 +1832,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="A163">
         <v>0.47302422967608965</v>
       </c>
       <c r="H163">
@@ -1841,7 +1840,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164">
         <v>0.48475210313913319</v>
       </c>
       <c r="H164">
@@ -1849,7 +1848,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="A165">
         <v>1.3169424576209314</v>
       </c>
       <c r="H165">
@@ -1857,7 +1856,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166">
         <v>0.43539730231549162</v>
       </c>
       <c r="H166">
@@ -1865,7 +1864,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="A167">
         <v>7.1329903725019426</v>
       </c>
       <c r="H167">
@@ -1873,7 +1872,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="A168">
         <v>0.57906375223777506</v>
       </c>
       <c r="H168">
@@ -1881,7 +1880,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="A169">
         <v>3.5735807764682268</v>
       </c>
       <c r="H169">
@@ -1889,7 +1888,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="A170">
         <v>0.70513839196549311</v>
       </c>
       <c r="H170">
@@ -1897,7 +1896,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="A171">
         <v>1.3579900147415838</v>
       </c>
       <c r="H171">
@@ -1905,7 +1904,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="A172">
         <v>0.63770311955299275</v>
       </c>
       <c r="H172">
@@ -1913,7 +1912,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="A173">
         <v>1.0501333363366907</v>
       </c>
       <c r="H173">
@@ -1921,7 +1920,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="A174">
         <v>1.2920207265119639</v>
       </c>
       <c r="H174">
@@ -1929,13 +1928,12 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="3"/>
       <c r="H175">
         <v>588.94445109295873</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="A176">
         <v>0.96950420627826639</v>
       </c>
       <c r="H176">
@@ -1943,7 +1941,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="A177">
         <v>4.2562407442962202</v>
       </c>
       <c r="H177">
@@ -1951,7 +1949,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="A178">
         <v>2.0445592737239249</v>
       </c>
       <c r="H178">
@@ -1959,12 +1957,12 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="A179">
         <v>0.6978084710510909</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+      <c r="A180">
         <v>0.57613178387201414</v>
       </c>
       <c r="H180">
@@ -1972,7 +1970,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
+      <c r="A181">
         <v>1.5446586673616935</v>
       </c>
       <c r="H181">
@@ -1980,7 +1978,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+      <c r="A182">
         <v>0.92308137382038569</v>
       </c>
       <c r="H182">
@@ -1988,7 +1986,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
+      <c r="A183">
         <v>0.8527141330421244</v>
       </c>
       <c r="H183">
@@ -1996,7 +1994,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+      <c r="A184">
         <v>2.2317165877383278</v>
       </c>
       <c r="H184">
@@ -2004,7 +2002,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
+      <c r="A185">
         <v>1.0110404247932123</v>
       </c>
       <c r="H185">
@@ -2012,7 +2010,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+      <c r="A186">
         <v>1.0369394786907669</v>
       </c>
       <c r="H186">
@@ -2020,7 +2018,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
+      <c r="A187">
         <v>0.42513541303532854</v>
       </c>
       <c r="H187">
@@ -2028,7 +2026,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+      <c r="A188">
         <v>0.42660139721820894</v>
       </c>
       <c r="H188">
@@ -2036,12 +2034,12 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+      <c r="A189">
         <v>2.3597458730432201</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="A190">
         <v>0.78039224668668927</v>
       </c>
       <c r="H190">
@@ -2049,13 +2047,12 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="3"/>
       <c r="H191">
         <v>836.29059592110036</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+      <c r="A192">
         <v>1.8495833774008257</v>
       </c>
       <c r="H192">
@@ -2063,7 +2060,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+      <c r="A193">
         <v>3.0272573376481149</v>
       </c>
       <c r="H193">
@@ -2071,7 +2068,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+      <c r="A194">
         <v>0.9304112947347879</v>
       </c>
       <c r="H194">
@@ -2079,7 +2076,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+      <c r="A195">
         <v>1.5920588226081613</v>
       </c>
       <c r="H195">
@@ -2087,7 +2084,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+      <c r="A196">
         <v>0.27511636498722986</v>
       </c>
       <c r="H196">
@@ -2095,7 +2092,7 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+      <c r="A197">
         <v>0.34401762158261068</v>
       </c>
       <c r="H197">
@@ -2103,7 +2100,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="A198">
         <v>0.2296708553179361</v>
       </c>
       <c r="H198">
@@ -2111,7 +2108,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+      <c r="A199">
         <v>0.54143682487717704</v>
       </c>
       <c r="H199">
@@ -2119,7 +2116,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="A200">
         <v>0.43588596370978511</v>
       </c>
       <c r="H200">
@@ -2127,7 +2124,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+      <c r="A201">
         <v>1.9922725045345222</v>
       </c>
       <c r="H201">
@@ -2135,7 +2132,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="A202">
         <v>0.2032831400260881</v>
       </c>
       <c r="H202">
@@ -2148,7 +2145,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+      <c r="A204">
         <v>0.53068627420272041</v>
       </c>
       <c r="H204">
@@ -2156,7 +2153,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+      <c r="A205">
         <v>1.030098219170658</v>
       </c>
       <c r="H205">
@@ -2164,7 +2161,7 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+      <c r="A206">
         <v>2.5200268103714816</v>
       </c>
       <c r="H206">
@@ -2172,7 +2169,7 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
+      <c r="A207">
         <v>0.92796798776332046</v>
       </c>
       <c r="H207">
@@ -2180,7 +2177,7 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+      <c r="A208">
         <v>1.4738027651891388</v>
       </c>
       <c r="H208">
@@ -2188,7 +2185,7 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
+      <c r="A209">
         <v>0.66702280321060159</v>
       </c>
       <c r="H209">
@@ -2196,7 +2193,7 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+      <c r="A210">
         <v>2.9363663183095277</v>
       </c>
       <c r="H210">
@@ -2204,7 +2201,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
+      <c r="A211">
         <v>5.0371216523772029</v>
       </c>
       <c r="H211">
@@ -2212,7 +2209,7 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+      <c r="A212">
         <v>0.76768705043505869</v>
       </c>
       <c r="H212">
@@ -2220,7 +2217,7 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
+      <c r="A213">
         <v>1.1698553779385936</v>
       </c>
       <c r="H213">
@@ -2228,7 +2225,7 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+      <c r="A214">
         <v>0.85222547164783091</v>
       </c>
       <c r="H214">
@@ -2236,7 +2233,7 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
+      <c r="A215">
         <v>1.3076578911293553</v>
       </c>
       <c r="H215">
@@ -2244,7 +2241,7 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+      <c r="A216">
         <v>0.56733587877473146</v>
       </c>
       <c r="H216">
@@ -2252,7 +2249,7 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
+      <c r="A217">
         <v>0.54339147045435088</v>
       </c>
       <c r="H217">
@@ -2260,7 +2257,7 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+      <c r="A218">
         <v>1.5456359901502805</v>
       </c>
       <c r="H218">
@@ -2268,7 +2265,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
+      <c r="A219">
         <v>1.727906690221749</v>
       </c>
       <c r="H219">
@@ -2276,7 +2273,7 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
+      <c r="A220">
         <v>0.68705792037663438</v>
       </c>
       <c r="H220">
@@ -2284,7 +2281,7 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
+      <c r="A221">
         <v>2.6915469597684938</v>
       </c>
       <c r="H221">
@@ -2292,7 +2289,7 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
+      <c r="A222">
         <v>0.77697161692663486</v>
       </c>
       <c r="H222">
@@ -2300,7 +2297,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="3">
+      <c r="A223">
         <v>1.750385114359249</v>
       </c>
       <c r="H223">
@@ -2308,7 +2305,7 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
+      <c r="A224">
         <v>2.7487203429008309</v>
       </c>
       <c r="H224">
@@ -2316,7 +2313,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
+      <c r="A225">
         <v>0.55707398949456843</v>
       </c>
       <c r="H225">
@@ -2324,7 +2321,7 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
+      <c r="A226">
         <v>1.3716725337818012</v>
       </c>
       <c r="H226">
@@ -2332,7 +2329,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
+      <c r="A227">
         <v>2.3748943762663179</v>
       </c>
       <c r="H227">
@@ -2340,7 +2337,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
+      <c r="A228">
         <v>0.96608357651821208</v>
       </c>
       <c r="H228">
@@ -2348,7 +2345,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="3">
+      <c r="A229">
         <v>1.200641045779083</v>
       </c>
       <c r="H229">
@@ -2356,7 +2353,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
+      <c r="A230">
         <v>1.9781013241000114</v>
       </c>
       <c r="H230">
@@ -2364,7 +2361,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
+      <c r="A231">
         <v>0.60594012892391647</v>
       </c>
       <c r="H231">
@@ -2372,7 +2369,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+      <c r="A232">
         <v>0.49403666963070936</v>
       </c>
       <c r="H232">
@@ -2380,7 +2377,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
+      <c r="A233">
         <v>0.59421225546087297</v>
       </c>
       <c r="H233">
@@ -2388,7 +2385,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
+      <c r="A234">
         <v>1.0765210516285388</v>
       </c>
       <c r="H234">
@@ -2396,7 +2393,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="3">
+      <c r="A235">
         <v>1.6204011834771832</v>
       </c>
       <c r="H235">
@@ -2404,7 +2401,7 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+      <c r="A236">
         <v>0.8800791711225594</v>
       </c>
       <c r="H236">
@@ -2412,7 +2409,7 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
+      <c r="A237">
         <v>0.36356407735434992</v>
       </c>
       <c r="H237">
@@ -2420,7 +2417,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+      <c r="A238">
         <v>0.42024879909239371</v>
       </c>
       <c r="H238">
@@ -2428,7 +2425,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239" s="3">
+      <c r="A239">
         <v>4.6540111192511135</v>
       </c>
       <c r="H239">
@@ -2436,12 +2433,12 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="3">
+      <c r="A240">
         <v>1.4884626070179432</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
+      <c r="A241">
         <v>0.87372657299674417</v>
       </c>
       <c r="H241">
@@ -2449,7 +2446,7 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
+      <c r="A242">
         <v>0.44419320741277429</v>
       </c>
       <c r="H242">
@@ -2457,7 +2454,7 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
+      <c r="A243">
         <v>0.27560502638152329</v>
       </c>
       <c r="H243">
@@ -2465,7 +2462,7 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
+      <c r="A244">
         <v>0.38115588754891522</v>
       </c>
       <c r="H244">
@@ -2473,7 +2470,7 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
+      <c r="A245">
         <v>0.22722754834646869</v>
       </c>
       <c r="H245">
@@ -2481,7 +2478,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
+      <c r="A246">
         <v>0.3137206151364148</v>
       </c>
       <c r="H246">
@@ -2489,7 +2486,7 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
+      <c r="A247">
         <v>0.35818880201712161</v>
       </c>
       <c r="H247">
@@ -2497,7 +2494,7 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
+      <c r="A248">
         <v>0.32202785883940399</v>
       </c>
       <c r="H248">
@@ -2505,7 +2502,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A249" s="3">
+      <c r="A249">
         <v>0.41047557120652406</v>
       </c>
       <c r="H249">
@@ -2513,7 +2510,7 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
+      <c r="A250">
         <v>0.61669067959837309</v>
       </c>
       <c r="H250">
@@ -2521,7 +2518,7 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251" s="3">
+      <c r="A251">
         <v>0.36258675456576295</v>
       </c>
       <c r="H251">
@@ -2529,7 +2526,7 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
+      <c r="A252">
         <v>0.56635855598614449</v>
       </c>
       <c r="H252">
@@ -2537,7 +2534,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253" s="3">
+      <c r="A253">
         <v>3.5081001496329005</v>
       </c>
       <c r="H253">
@@ -2545,7 +2542,7 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A254" s="3">
+      <c r="A254">
         <v>0.2345574692608709</v>
       </c>
       <c r="H254">
@@ -2553,7 +2550,7 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
+      <c r="A255">
         <v>0.44126123904701336</v>
       </c>
       <c r="H255">
@@ -2561,7 +2558,7 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A256" s="3">
+      <c r="A256">
         <v>0.91624011430027696</v>
       </c>
       <c r="H256">
@@ -2569,7 +2566,7 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" s="3">
+      <c r="A257">
         <v>0.53655021093424216</v>
       </c>
       <c r="H257">
@@ -2577,7 +2574,7 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" s="3">
+      <c r="A258">
         <v>0.57026784714049239</v>
       </c>
       <c r="H258">
@@ -2585,7 +2582,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A259" s="3">
+      <c r="A259">
         <v>1.1356490803380499</v>
       </c>
       <c r="H259">
@@ -2593,7 +2590,7 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
+      <c r="A260">
         <v>0.4999006063622311</v>
       </c>
       <c r="H260">
@@ -2601,7 +2598,7 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A261" s="3">
+      <c r="A261">
         <v>0.20083983305462072</v>
       </c>
       <c r="H261">
@@ -2609,7 +2606,7 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
+      <c r="A262">
         <v>0.26925242825570805</v>
       </c>
       <c r="H262">
@@ -2617,7 +2614,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A263" s="3">
+      <c r="A263">
         <v>0.43979525486413296</v>
       </c>
       <c r="H263">
@@ -2625,7 +2622,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A264" s="3">
+      <c r="A264">
         <v>0.64943099301603635</v>
       </c>
       <c r="H264">
@@ -2633,7 +2630,7 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A265" s="3">
+      <c r="A265">
         <v>0.36503006153723033</v>
       </c>
       <c r="H265">
@@ -2641,7 +2638,7 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A266" s="3">
+      <c r="A266">
         <v>0.48035415059049186</v>
       </c>
       <c r="H266">
@@ -2649,7 +2646,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A267" s="3">
+      <c r="A267">
         <v>1.0877602636972887</v>
       </c>
       <c r="H267">
@@ -2657,7 +2654,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A268" s="3">
+      <c r="A268">
         <v>0.31127730816494742</v>
       </c>
       <c r="H268">
@@ -2665,7 +2662,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A269" s="3">
+      <c r="A269">
         <v>0.37724659639456737</v>
       </c>
       <c r="H269">
@@ -2673,7 +2670,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A270" s="3">
+      <c r="A270">
         <v>0.59421225546087297</v>
       </c>
       <c r="H270">
@@ -2681,7 +2678,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A271" s="3">
+      <c r="A271">
         <v>0.44859115996141558</v>
       </c>
       <c r="H271">
@@ -2689,7 +2686,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="3">
+      <c r="A272">
         <v>0.26192250734130584</v>
       </c>
       <c r="H272">
@@ -2697,7 +2694,7 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A273" s="3">
+      <c r="A273">
         <v>0.33961966903396934</v>
       </c>
       <c r="H273">
@@ -2705,7 +2702,7 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A274" s="3">
+      <c r="A274">
         <v>0.25459258642690363</v>
       </c>
       <c r="H274">
@@ -2713,7 +2710,7 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A275" s="3">
+      <c r="A275">
         <v>0.10506219977309843</v>
       </c>
       <c r="H275">
@@ -2721,7 +2718,7 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A276" s="3">
+      <c r="A276">
         <v>0.60203083776956867</v>
       </c>
       <c r="H276">
@@ -2729,7 +2726,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A277" s="3">
+      <c r="A277">
         <v>0.25801321618695799</v>
       </c>
       <c r="H277">
@@ -2737,7 +2734,7 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A278" s="3">
+      <c r="A278">
         <v>0.29221951378750166</v>
       </c>
       <c r="H278">
@@ -2745,7 +2742,7 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A279" s="3">
+      <c r="A279">
         <v>0.42562407442962197</v>
       </c>
       <c r="H279">
@@ -2753,7 +2750,7 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A280" s="3">
+      <c r="A280">
         <v>0.5155377709796225</v>
       </c>
       <c r="H280">
@@ -2761,7 +2758,7 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A281" s="3">
+      <c r="A281">
         <v>0.20181715584320767</v>
       </c>
       <c r="H281">
@@ -2769,7 +2766,7 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A282" s="3">
+      <c r="A282">
         <v>0.31811856768505614</v>
       </c>
       <c r="H282">
@@ -2777,7 +2774,7 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="3">
+      <c r="A283">
         <v>0.29173085239320817</v>
       </c>
       <c r="H283">
@@ -2785,7 +2782,7 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A284" s="3">
+      <c r="A284">
         <v>0.6010535149809817</v>
       </c>
       <c r="H284">
@@ -2793,13 +2790,12 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A285" s="3"/>
       <c r="H285">
         <v>1094.6161358587256</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A286" s="3">
+      <c r="A286">
         <v>1.2617237200657681</v>
       </c>
       <c r="H286">
@@ -2807,7 +2803,7 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A287" s="3">
+      <c r="A287">
         <v>0.7173549268228302</v>
       </c>
       <c r="H287">
@@ -2815,7 +2811,7 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A288" s="3">
+      <c r="A288">
         <v>2.7785286879527331</v>
       </c>
       <c r="H288">
@@ -2823,7 +2819,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A289" s="3">
+      <c r="A289">
         <v>1.0735890832627779</v>
       </c>
       <c r="H289">
@@ -2831,7 +2827,7 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A290" s="3">
+      <c r="A290">
         <v>1.713735509787238</v>
       </c>
       <c r="H290">
@@ -2839,7 +2835,7 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A291" s="3">
+      <c r="A291">
         <v>0.62108863214701437</v>
       </c>
       <c r="H291">
@@ -2847,7 +2843,7 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A292" s="3">
+      <c r="A292">
         <v>0.76573240485788485</v>
       </c>
       <c r="H292">
@@ -2855,7 +2851,7 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A293" s="3">
+      <c r="A293">
         <v>3.1968228414679531</v>
       </c>
       <c r="H293">
@@ -2863,7 +2859,7 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A294" s="3">
+      <c r="A294">
         <v>0.67728469249076473</v>
       </c>
       <c r="H294">
@@ -2871,7 +2867,7 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A295" s="3">
+      <c r="A295">
         <v>0.83756562981902649</v>
       </c>
       <c r="H295">
@@ -2879,7 +2875,7 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A296" s="3">
+      <c r="A296">
         <v>0.73054878446875415</v>
       </c>
       <c r="H296">
@@ -2887,7 +2883,7 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A297" s="3">
+      <c r="A297">
         <v>0.58101839781494902</v>
       </c>
       <c r="H297">
@@ -2895,7 +2891,7 @@
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A298" s="3">
+      <c r="A298">
         <v>0.68705792037663438</v>
       </c>
       <c r="H298">
@@ -2903,7 +2899,7 @@
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A299" s="3">
+      <c r="A299">
         <v>1.1591048272641371</v>
       </c>
       <c r="H299">
@@ -2911,7 +2907,7 @@
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A300" s="3">
+      <c r="A300">
         <v>1.3281816696896815</v>
       </c>
       <c r="H300">
@@ -2919,7 +2915,7 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A301" s="3">
+      <c r="A301">
         <v>0.51602643237391599</v>
       </c>
       <c r="H301">
@@ -2927,7 +2923,7 @@
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A302" s="3">
+      <c r="A302">
         <v>0.50967383424810075</v>
       </c>
       <c r="H302">
@@ -2935,7 +2931,7 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A303" s="3">
+      <c r="A303">
         <v>0.38311053312608911</v>
       </c>
       <c r="H303">
@@ -2943,7 +2939,7 @@
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A304" s="3">
+      <c r="A304">
         <v>0.28049164032445811</v>
       </c>
       <c r="H304">
@@ -2951,7 +2947,7 @@
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A305" s="3">
+      <c r="A305">
         <v>0.12656330112201158</v>
       </c>
       <c r="H305">
@@ -2959,7 +2955,7 @@
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A306" s="3">
+      <c r="A306">
         <v>0.45787572645299174</v>
       </c>
       <c r="H306">
@@ -2967,7 +2963,7 @@
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A307" s="3">
+      <c r="A307">
         <v>0.38653116288614353</v>
       </c>
       <c r="H307">
@@ -2975,7 +2971,7 @@
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A308" s="3">
+      <c r="A308">
         <v>0.92503601939755964</v>
       </c>
       <c r="H308">
@@ -2983,7 +2979,7 @@
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A309" s="3">
+      <c r="A309">
         <v>0.92601334218614662</v>
       </c>
       <c r="H309">
@@ -2991,7 +2987,7 @@
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A310" s="3">
+      <c r="A310">
         <v>0.22918219392364261</v>
       </c>
       <c r="H310">
@@ -2999,7 +2995,7 @@
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A311" s="3">
+      <c r="A311">
         <v>0.9304112947347879</v>
       </c>
       <c r="H311">
@@ -3007,7 +3003,7 @@
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A312" s="3">
+      <c r="A312">
         <v>0.43832927068125249</v>
       </c>
       <c r="H312">
@@ -3015,7 +3011,7 @@
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A313" s="3">
+      <c r="A313">
         <v>0.54974406858016622</v>
       </c>
       <c r="H313">
@@ -3023,7 +3019,7 @@
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A314" s="3">
+      <c r="A314">
         <v>0.39874769774348051</v>
       </c>
       <c r="H314">
@@ -3031,7 +3027,7 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A315" s="3">
+      <c r="A315">
         <v>0.34694958994837155</v>
       </c>
       <c r="H315">
@@ -3039,7 +3035,7 @@
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A316" s="3">
+      <c r="A316">
         <v>0.40412297308070882</v>
       </c>
       <c r="H316">
@@ -3047,7 +3043,7 @@
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A317" s="3">
+      <c r="A317">
         <v>0.31958455186793661</v>
       </c>
       <c r="H317">
@@ -3055,12 +3051,12 @@
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A318" s="3">
+      <c r="A318">
         <v>0.36600738432581731</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A319" s="3">
+      <c r="A319">
         <v>0.20474912420896857</v>
       </c>
       <c r="H319">
@@ -3068,7 +3064,7 @@
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A320" s="3">
+      <c r="A320">
         <v>0.360632108988589</v>
       </c>
       <c r="H320">
@@ -3076,7 +3072,7 @@
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A321" s="3">
+      <c r="A321">
         <v>2.5019463387826231</v>
       </c>
       <c r="H321">
@@ -3084,7 +3080,7 @@
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A322" s="3">
+      <c r="A322">
         <v>0.30199274167337131</v>
       </c>
       <c r="H322">
@@ -3092,7 +3088,7 @@
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A323" s="3">
+      <c r="A323">
         <v>0.39337242240625225</v>
       </c>
       <c r="H323">
@@ -3100,7 +3096,7 @@
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A324" s="3">
+      <c r="A324">
         <v>1.0613725484054408</v>
       </c>
       <c r="H324">
@@ -3108,7 +3104,7 @@
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A325" s="3">
+      <c r="A325">
         <v>0.70709303754266706</v>
       </c>
       <c r="H325">
@@ -3116,7 +3112,7 @@
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A326" s="3">
+      <c r="A326">
         <v>0.20670376978614249</v>
       </c>
       <c r="H326">
@@ -3124,7 +3120,7 @@
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A327" s="3">
+      <c r="A327">
         <v>0.23015951671222956</v>
       </c>
       <c r="H327">
@@ -3132,7 +3128,7 @@
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A328" s="3">
+      <c r="A328">
         <v>0.25312660224402317</v>
       </c>
       <c r="H328">
@@ -3140,7 +3136,7 @@
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A329" s="3">
+      <c r="A329">
         <v>0.25068329527255578</v>
       </c>
       <c r="H329">
@@ -3148,7 +3144,7 @@
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A330" s="3">
+      <c r="A330">
         <v>0.46373966318451354</v>
       </c>
       <c r="H330">
@@ -3156,7 +3152,7 @@
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A331" s="3">
+      <c r="A331">
         <v>1.7894780259027276</v>
       </c>
       <c r="H331">
@@ -3164,13 +3160,12 @@
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A332" s="3"/>
       <c r="H332">
         <v>1658.528345985558</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A333" s="3">
+      <c r="A333">
         <v>0.60398548334674262</v>
       </c>
       <c r="H333">
@@ -3178,7 +3173,7 @@
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A334" s="3">
+      <c r="A334">
         <v>1.0862942795144084</v>
       </c>
       <c r="H334">
@@ -3186,7 +3181,7 @@
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A335" s="3">
+      <c r="A335">
         <v>0.68656925898234089</v>
       </c>
       <c r="H335">
@@ -3194,7 +3189,7 @@
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A336" s="3">
+      <c r="A336">
         <v>1.1591048272641371</v>
       </c>
       <c r="H336">
@@ -3202,7 +3197,7 @@
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A337" s="3">
+      <c r="A337">
         <v>1.1043747511032671</v>
       </c>
       <c r="H337">
@@ -3210,7 +3205,7 @@
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A338" s="3">
+      <c r="A338">
         <v>0.27853699474728422</v>
       </c>
       <c r="H338">
@@ -3218,7 +3213,7 @@
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A339" s="3">
+      <c r="A339">
         <v>0.2267388869521752</v>
       </c>
       <c r="H339">
@@ -3226,7 +3221,7 @@
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A340" s="3">
+      <c r="A340">
         <v>0.16076959872255525</v>
       </c>
       <c r="H340">
@@ -3234,7 +3229,7 @@
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A341" s="3">
+      <c r="A341">
         <v>0.20963573815190337</v>
       </c>
       <c r="H341">
@@ -3242,7 +3237,7 @@
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A342" s="3">
+      <c r="A342">
         <v>0.26729778267853416</v>
       </c>
       <c r="H342">
@@ -3250,7 +3245,7 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A343" s="3">
+      <c r="A343">
         <v>0.26192250734130584</v>
       </c>
       <c r="H343">
@@ -3258,7 +3253,7 @@
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A344" s="3">
+      <c r="A344">
         <v>0.29368549797038213</v>
       </c>
       <c r="H344">
@@ -3266,7 +3261,7 @@
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A345" s="3">
+      <c r="A345">
         <v>0.45543241948152435</v>
       </c>
       <c r="H345">
@@ -3274,7 +3269,7 @@
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A346" s="3">
+      <c r="A346">
         <v>0.25459258642690363</v>
       </c>
       <c r="H346">
@@ -3282,7 +3277,7 @@
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A347" s="3">
+      <c r="A347">
         <v>0.75351587000054776</v>
       </c>
       <c r="H347">
@@ -3290,7 +3285,7 @@
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A348" s="3">
+      <c r="A348">
         <v>0.81557586707581986</v>
       </c>
       <c r="H348">
@@ -3298,12 +3293,12 @@
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A349" s="3">
+      <c r="A349">
         <v>0.19644188050597938</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A350" s="3">
+      <c r="A350">
         <v>0.22722754834646869</v>
       </c>
       <c r="H350">
@@ -3311,7 +3306,7 @@
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A351" s="3">
+      <c r="A351">
         <v>0.39239509961766528</v>
       </c>
       <c r="H351">
@@ -3319,7 +3314,7 @@
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A352" s="3">
+      <c r="A352">
         <v>0.20963573815190337</v>
       </c>
       <c r="H352">
@@ -3327,7 +3322,7 @@
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A353" s="3">
+      <c r="A353">
         <v>1.3697178882046275</v>
       </c>
       <c r="H353">
@@ -3335,7 +3330,7 @@
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A354" s="3">
+      <c r="A354">
         <v>0.21061306094049034</v>
       </c>
       <c r="H354">
@@ -3343,7 +3338,7 @@
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A355" s="3">
+      <c r="A355">
         <v>0.17640676333994665</v>
       </c>
       <c r="H355">
@@ -3351,7 +3346,7 @@
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A356" s="3">
+      <c r="A356">
         <v>0.25556990921549061</v>
       </c>
       <c r="H356">
@@ -3359,13 +3354,12 @@
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A357" s="3"/>
       <c r="H357">
         <v>977.61379776583499</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A358" s="3">
+      <c r="A358">
         <v>0.51651509376820948</v>
       </c>
       <c r="H358">
@@ -3373,7 +3367,7 @@
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A359" s="3">
+      <c r="A359">
         <v>0.72810547749728671</v>
       </c>
       <c r="H359">
@@ -3381,7 +3375,7 @@
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A360" s="3">
+      <c r="A360">
         <v>0.61962264796413402</v>
       </c>
       <c r="H360">
@@ -3389,7 +3383,7 @@
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A361" s="3">
+      <c r="A361">
         <v>0.60838343589538391</v>
       </c>
       <c r="H361">
@@ -3397,7 +3391,7 @@
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A362" s="3">
+      <c r="A362">
         <v>1.728884013010336</v>
       </c>
       <c r="H362">
@@ -3405,7 +3399,7 @@
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A363" s="3">
+      <c r="A363">
         <v>0.53068627420272041</v>
       </c>
       <c r="H363">
@@ -3413,7 +3407,7 @@
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A364" s="3">
+      <c r="A364">
         <v>0.70660437614837357</v>
       </c>
       <c r="H364">
@@ -3421,12 +3415,12 @@
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A365" s="3">
+      <c r="A365">
         <v>2.3744057148720246</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A366" s="3">
+      <c r="A366">
         <v>0.20963573815190337</v>
       </c>
       <c r="H366">
@@ -3434,7 +3428,7 @@
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A367" s="3">
+      <c r="A367">
         <v>0.35770014062282812</v>
       </c>
       <c r="H367">
@@ -3442,7 +3436,7 @@
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A368" s="3">
+      <c r="A368">
         <v>0.31420927653070829</v>
       </c>
       <c r="H368">
@@ -3450,7 +3444,7 @@
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A369" s="3">
+      <c r="A369">
         <v>0.49012737847636151</v>
       </c>
       <c r="H369">
@@ -3458,7 +3452,7 @@
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A370" s="3">
+      <c r="A370">
         <v>0.34646092855407806</v>
       </c>
       <c r="H370">
@@ -3466,7 +3460,7 @@
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A371" s="3">
+      <c r="A371">
         <v>0.32007321326223009</v>
       </c>
       <c r="H371">
@@ -3474,7 +3468,7 @@
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A372" s="3">
+      <c r="A372">
         <v>0.21989762743206648</v>
       </c>
       <c r="H372">
@@ -3482,7 +3476,7 @@
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A373" s="3">
+      <c r="A373">
         <v>0.72663949331440636</v>
       </c>
       <c r="H373">
@@ -3490,7 +3484,7 @@
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A374" s="3">
+      <c r="A374">
         <v>0.52042438492255727</v>
       </c>
       <c r="H374">
@@ -3498,7 +3492,7 @@
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A375" s="3">
+      <c r="A375">
         <v>0.27804833335299073</v>
       </c>
       <c r="H375">
@@ -3506,7 +3500,7 @@
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A376" s="3">
+      <c r="A376">
         <v>4.0334111484983923</v>
       </c>
       <c r="H376">
@@ -3629,7 +3623,7 @@
       <c r="M6">
         <v>41.550812850782201</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <f>I6*$P$5</f>
         <v>1.4625635531203889</v>
       </c>
@@ -3681,7 +3675,7 @@
       <c r="M7">
         <v>17.720164044920899</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7">
         <f t="shared" ref="O7:O70" si="1">I7*$P$5</f>
         <v>3.2559508701774642</v>
       </c>
@@ -3728,7 +3722,7 @@
       <c r="M8">
         <v>13.418538547457</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <f t="shared" si="1"/>
         <v>3.9674418602687727</v>
       </c>
@@ -3775,7 +3769,7 @@
       <c r="M9">
         <v>42.844069788694398</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9">
         <f t="shared" si="1"/>
         <v>0.7637777592807109</v>
       </c>
@@ -3822,7 +3816,7 @@
       <c r="M10">
         <v>19.875400315065001</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10">
         <f t="shared" si="1"/>
         <v>7.1999369835201499</v>
       </c>
@@ -3869,7 +3863,7 @@
       <c r="M11">
         <v>23.228167908665501</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11">
         <f t="shared" si="1"/>
         <v>1.5676257528934872</v>
       </c>
@@ -3916,7 +3910,7 @@
       <c r="M12">
         <v>40.936531246436502</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12">
         <f t="shared" si="1"/>
         <v>0.45836438784728523</v>
       </c>
@@ -3963,7 +3957,7 @@
       <c r="M13">
         <v>30.548537886081299</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13">
         <f t="shared" si="1"/>
         <v>0.36747336850869777</v>
       </c>
@@ -4010,7 +4004,7 @@
       <c r="M14">
         <v>33.310521263685601</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14">
         <f t="shared" si="1"/>
         <v>1.1566615202926696</v>
       </c>
@@ -4027,7 +4021,6 @@
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3"/>
       <c r="R15">
         <f t="shared" ref="R15:R46" si="3">O16*1000</f>
         <v>1327.2043469010946</v>
@@ -4068,7 +4061,7 @@
       <c r="M16">
         <v>16.4141868470888</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16">
         <f t="shared" si="1"/>
         <v>1.3272043469010946</v>
       </c>
@@ -4115,7 +4108,7 @@
       <c r="M17">
         <v>15.092061544580201</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17">
         <f t="shared" si="1"/>
         <v>0.66018154369049287</v>
       </c>
@@ -4162,7 +4155,7 @@
       <c r="M18">
         <v>15.4527212922125</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18">
         <f t="shared" si="1"/>
         <v>0.79700673409266753</v>
       </c>
@@ -4209,7 +4202,7 @@
       <c r="M19">
         <v>13.903476720333201</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19">
         <f t="shared" si="1"/>
         <v>5.378207305594052</v>
       </c>
@@ -4256,7 +4249,7 @@
       <c r="M20">
         <v>27.968793739725101</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20">
         <f t="shared" si="1"/>
         <v>6.4430004837595476</v>
       </c>
@@ -4303,7 +4296,7 @@
       <c r="M21">
         <v>27.293386068616901</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21">
         <f t="shared" si="1"/>
         <v>1.8735277857212063</v>
       </c>
@@ -4350,7 +4343,7 @@
       <c r="M22">
         <v>11.0679886456868</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22">
         <f t="shared" si="1"/>
         <v>1.5549205566418567</v>
       </c>
@@ -4397,7 +4390,7 @@
       <c r="M23">
         <v>16.4324527622205</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23">
         <f t="shared" si="1"/>
         <v>1.030098219170658</v>
       </c>
@@ -4444,7 +4437,7 @@
       <c r="M24">
         <v>53.4116525971748</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24">
         <f t="shared" si="1"/>
         <v>0.97145885185544034</v>
       </c>
@@ -4491,7 +4484,7 @@
       <c r="M25">
         <v>25.2555408474655</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25">
         <f t="shared" si="1"/>
         <v>1.083850972542941</v>
       </c>
@@ -4538,7 +4531,7 @@
       <c r="M26">
         <v>16.795571216542498</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26">
         <f t="shared" si="1"/>
         <v>0.53312958117418785</v>
       </c>
@@ -4585,7 +4578,7 @@
       <c r="M27">
         <v>30.066408378174401</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27">
         <f t="shared" si="1"/>
         <v>1.6326177183345201</v>
       </c>
@@ -4632,7 +4625,7 @@
       <c r="M28">
         <v>38.0990616835929</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28">
         <f t="shared" si="1"/>
         <v>0.79602941130408067</v>
       </c>
@@ -4679,7 +4672,7 @@
       <c r="M29">
         <v>55.623859658304603</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29">
         <f t="shared" si="1"/>
         <v>4.9315707912098103</v>
       </c>
@@ -4726,7 +4719,7 @@
       <c r="M30">
         <v>25.2289944960404</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30">
         <f t="shared" si="1"/>
         <v>0.49354800823641587</v>
       </c>
@@ -4773,7 +4766,7 @@
       <c r="M31">
         <v>28.387917502155201</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31">
         <f t="shared" si="1"/>
         <v>3.0775894612603438</v>
       </c>
@@ -4820,7 +4813,7 @@
       <c r="M32">
         <v>23.608763002685102</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32">
         <f t="shared" si="1"/>
         <v>0.74569728769185206</v>
       </c>
@@ -4867,7 +4860,7 @@
       <c r="M33">
         <v>38.093310478571503</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33">
         <f t="shared" si="1"/>
         <v>1.3242723785353336</v>
       </c>
@@ -4914,7 +4907,7 @@
       <c r="M34">
         <v>42.845000052734399</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34">
         <f t="shared" si="1"/>
         <v>0.64796500883315589</v>
       </c>
@@ -4961,7 +4954,7 @@
       <c r="M35">
         <v>16.037322695499899</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35">
         <f t="shared" si="1"/>
         <v>0.66018154369049287</v>
       </c>
@@ -5008,7 +5001,7 @@
       <c r="M36">
         <v>27.3675718228539</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36">
         <f t="shared" si="1"/>
         <v>1.4615862303318019</v>
       </c>
@@ -5055,7 +5048,7 @@
       <c r="M37">
         <v>31.3186939933845</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37">
         <f t="shared" si="1"/>
         <v>0.50136659054511157</v>
       </c>
@@ -5102,7 +5095,7 @@
       <c r="M38">
         <v>12.237106301588501</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38">
         <f t="shared" si="1"/>
         <v>1.0134837317646797</v>
       </c>
@@ -5149,7 +5142,7 @@
       <c r="M39">
         <v>23.772281066625101</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39">
         <f t="shared" si="1"/>
         <v>0.81606452847011335</v>
       </c>
@@ -5196,7 +5189,7 @@
       <c r="M40">
         <v>22.968934332898499</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40">
         <f t="shared" si="1"/>
         <v>1.6702446456951183</v>
       </c>
@@ -5243,7 +5236,7 @@
       <c r="M41">
         <v>27.0026703619573</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41">
         <f t="shared" si="1"/>
         <v>1.0877602636972887</v>
       </c>
@@ -5290,7 +5283,7 @@
       <c r="M42">
         <v>31.260694805199002</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42">
         <f t="shared" si="1"/>
         <v>0.67923933806793868</v>
       </c>
@@ -5337,7 +5330,7 @@
       <c r="M43">
         <v>16.743842402672101</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43">
         <f t="shared" si="1"/>
         <v>1.1229438840864194</v>
       </c>
@@ -5384,7 +5377,7 @@
       <c r="M44">
         <v>13.5051431591762</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44">
         <f t="shared" si="1"/>
         <v>2.3910202022780029</v>
       </c>
@@ -5431,7 +5424,7 @@
       <c r="M45">
         <v>17.4506401885724</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45">
         <f t="shared" si="1"/>
         <v>1.1635027798127784</v>
       </c>
@@ -5478,7 +5471,7 @@
       <c r="M46">
         <v>32.143755895818302</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46">
         <f t="shared" si="1"/>
         <v>0.21745432046059907</v>
       </c>
@@ -5525,7 +5518,7 @@
       <c r="M47">
         <v>19.9858435441753</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47">
         <f t="shared" si="1"/>
         <v>0.70611571475408008</v>
       </c>
@@ -5572,7 +5565,7 @@
       <c r="M48">
         <v>49.500696684663801</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48">
         <f t="shared" si="1"/>
         <v>0.98807333926141871</v>
       </c>
@@ -5619,7 +5612,7 @@
       <c r="M49">
         <v>51.004485516876798</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49">
         <f t="shared" si="1"/>
         <v>1.0999767985546258</v>
       </c>
@@ -5666,7 +5659,7 @@
       <c r="M50">
         <v>23.146213047569599</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50">
         <f t="shared" si="1"/>
         <v>0.29221951378750166</v>
       </c>
@@ -5713,7 +5706,7 @@
       <c r="M51">
         <v>24.843651096376899</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51">
         <f t="shared" si="1"/>
         <v>1.0120177475817993</v>
       </c>
@@ -5760,7 +5753,7 @@
       <c r="M52">
         <v>20.7846628015158</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52">
         <f t="shared" si="1"/>
         <v>1.3076578911293553</v>
       </c>
@@ -5807,7 +5800,7 @@
       <c r="M53">
         <v>22.169848710122501</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53">
         <f t="shared" si="1"/>
         <v>0.29954943470190387</v>
       </c>
@@ -5854,7 +5847,7 @@
       <c r="M54">
         <v>20.053228967252998</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54">
         <f t="shared" si="1"/>
         <v>1.2446205712654963</v>
       </c>
@@ -5901,7 +5894,7 @@
       <c r="M55">
         <v>9.7835189737053998</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O55">
         <f t="shared" si="1"/>
         <v>0.32593714999375184</v>
       </c>
@@ -5948,7 +5941,7 @@
       <c r="M56">
         <v>22.231996122982601</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56">
         <f t="shared" si="1"/>
         <v>0.86541932929375498</v>
       </c>
@@ -5995,7 +5988,7 @@
       <c r="M57">
         <v>14.7021440679385</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57">
         <f t="shared" si="1"/>
         <v>0.5155377709796225</v>
       </c>
@@ -6042,7 +6035,7 @@
       <c r="M58">
         <v>26.160234704229602</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58">
         <f t="shared" si="1"/>
         <v>0.63477115118723193</v>
       </c>
@@ -6089,7 +6082,7 @@
       <c r="M59">
         <v>23.638040750356499</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59">
         <f t="shared" si="1"/>
         <v>0.52922029001983995</v>
       </c>
@@ -6136,7 +6129,7 @@
       <c r="M60">
         <v>37.619302666191999</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60">
         <f t="shared" si="1"/>
         <v>1.8388328267263692</v>
       </c>
@@ -6183,7 +6176,7 @@
       <c r="M61">
         <v>26.350939972083999</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61">
         <f t="shared" si="1"/>
         <v>0.36600738432581731</v>
       </c>
@@ -6230,7 +6223,7 @@
       <c r="M62">
         <v>11.9606688635868</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62">
         <f t="shared" si="1"/>
         <v>0.53557288814565518</v>
       </c>
@@ -6277,7 +6270,7 @@
       <c r="M63">
         <v>37.272451061396403</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63">
         <f t="shared" si="1"/>
         <v>1.9834765994372396</v>
       </c>
@@ -6324,7 +6317,7 @@
       <c r="M64">
         <v>21.2364831046917</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64">
         <f t="shared" si="1"/>
         <v>0.43441997952690464</v>
       </c>
@@ -6371,7 +6364,7 @@
       <c r="M65">
         <v>40.701802477373498</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O65">
         <f t="shared" si="1"/>
         <v>1.2690536409801703</v>
       </c>
@@ -6388,7 +6381,6 @@
       <c r="A66" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
       <c r="R66">
         <f t="shared" si="5"/>
         <v>1042.3147540279951</v>
@@ -6429,7 +6421,7 @@
       <c r="M67">
         <v>52.794274926256797</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O67">
         <f t="shared" si="1"/>
         <v>0.61180406565543832</v>
       </c>
@@ -6476,7 +6468,7 @@
       <c r="M68">
         <v>23.143703461675901</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O68">
         <f t="shared" si="1"/>
         <v>1.0423147540279951</v>
       </c>
@@ -6523,7 +6515,7 @@
       <c r="M69">
         <v>54.734517354377601</v>
       </c>
-      <c r="O69" s="3">
+      <c r="O69">
         <f t="shared" si="1"/>
         <v>1.3926849737364211</v>
       </c>
@@ -6570,7 +6562,7 @@
       <c r="M70">
         <v>41.9957277659094</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O70">
         <f t="shared" si="1"/>
         <v>0.83072437029891777</v>
       </c>
@@ -6617,7 +6609,7 @@
       <c r="M71">
         <v>38.620165516567702</v>
       </c>
-      <c r="O71" s="3">
+      <c r="O71">
         <f t="shared" ref="O71:O134" si="6">I71*$P$5</f>
         <v>0.76817571182935218</v>
       </c>
@@ -6664,7 +6656,7 @@
       <c r="M72">
         <v>28.157376103605301</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72">
         <f t="shared" si="6"/>
         <v>3.9000065878562724</v>
       </c>
@@ -6711,7 +6703,7 @@
       <c r="M73">
         <v>35.8985063776639</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73">
         <f t="shared" si="6"/>
         <v>0.67484138551929729</v>
       </c>
@@ -6758,7 +6750,7 @@
       <c r="M74">
         <v>41.447109959295098</v>
       </c>
-      <c r="O74" s="3">
+      <c r="O74">
         <f t="shared" si="6"/>
         <v>0.90402357944293998</v>
       </c>
@@ -6805,7 +6797,7 @@
       <c r="M75">
         <v>32.859006713523698</v>
       </c>
-      <c r="O75" s="3">
+      <c r="O75">
         <f t="shared" si="6"/>
         <v>1.2617237200657681</v>
       </c>
@@ -6852,7 +6844,7 @@
       <c r="M76">
         <v>31.828673345749099</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76">
         <f t="shared" si="6"/>
         <v>0.66995477157636252</v>
       </c>
@@ -6899,7 +6891,7 @@
       <c r="M77">
         <v>60.495719277253698</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O77">
         <f t="shared" si="6"/>
         <v>2.2766734360133283</v>
       </c>
@@ -6946,7 +6938,7 @@
       <c r="M78">
         <v>17.6940073252348</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78">
         <f t="shared" si="6"/>
         <v>2.412521303626916</v>
       </c>
@@ -6993,7 +6985,7 @@
       <c r="M79">
         <v>7.47989496556142</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O79">
         <f t="shared" si="6"/>
         <v>1.3516374166157685</v>
       </c>
@@ -7040,7 +7032,7 @@
       <c r="M80">
         <v>30.861223849852099</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O80">
         <f t="shared" si="6"/>
         <v>0.54925540718587273</v>
       </c>
@@ -7087,7 +7079,7 @@
       <c r="M81">
         <v>24.4834862403663</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81">
         <f t="shared" si="6"/>
         <v>1.2822474986260943</v>
       </c>
@@ -7134,7 +7126,7 @@
       <c r="M82">
         <v>33.049473672035496</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82">
         <f t="shared" si="6"/>
         <v>2.7203779820318088</v>
       </c>
@@ -7181,7 +7173,7 @@
       <c r="M83">
         <v>12.3993668268393</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83">
         <f t="shared" si="6"/>
         <v>4.3549503459435028</v>
       </c>
@@ -7228,7 +7220,7 @@
       <c r="M84">
         <v>26.275948153239799</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O84">
         <f t="shared" si="6"/>
         <v>2.1955556445606104</v>
       </c>
@@ -7275,7 +7267,7 @@
       <c r="M85">
         <v>26.384322425151801</v>
       </c>
-      <c r="O85" s="3">
+      <c r="O85">
         <f t="shared" si="6"/>
         <v>23.533932749174046</v>
       </c>
@@ -7322,7 +7314,7 @@
       <c r="M86">
         <v>50.2708983544793</v>
       </c>
-      <c r="O86" s="3">
+      <c r="O86">
         <f t="shared" si="6"/>
         <v>2.95493545129268</v>
       </c>
@@ -7369,7 +7361,7 @@
       <c r="M87">
         <v>15.524637836897799</v>
       </c>
-      <c r="O87" s="3">
+      <c r="O87">
         <f t="shared" si="6"/>
         <v>0.6396577651301667</v>
       </c>
@@ -7416,7 +7408,7 @@
       <c r="M88">
         <v>26.495082712654401</v>
       </c>
-      <c r="O88" s="3">
+      <c r="O88">
         <f t="shared" si="6"/>
         <v>0.66164752787337333</v>
       </c>
@@ -7463,7 +7455,7 @@
       <c r="M89">
         <v>22.2621492205405</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89">
         <f t="shared" si="6"/>
         <v>0.98025475695272302</v>
       </c>
@@ -7510,7 +7502,7 @@
       <c r="M90">
         <v>26.848265978696102</v>
       </c>
-      <c r="O90" s="3">
+      <c r="O90">
         <f t="shared" si="6"/>
         <v>0.79896137966984149</v>
       </c>
@@ -7557,7 +7549,7 @@
       <c r="M91">
         <v>63.767759206639802</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91">
         <f t="shared" si="6"/>
         <v>0.64014642652446019</v>
       </c>
@@ -7604,7 +7596,7 @@
       <c r="M92">
         <v>47.791331232250499</v>
       </c>
-      <c r="O92" s="3">
+      <c r="O92">
         <f t="shared" si="6"/>
         <v>0.50918517285380727</v>
       </c>
@@ -7651,7 +7643,7 @@
       <c r="M93">
         <v>34.750379468847399</v>
       </c>
-      <c r="O93" s="3">
+      <c r="O93">
         <f t="shared" si="6"/>
         <v>0.47595619804185052</v>
       </c>
@@ -7698,7 +7690,7 @@
       <c r="M94">
         <v>14.991965673668799</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94">
         <f t="shared" si="6"/>
         <v>10.236967549054134</v>
       </c>
@@ -7745,7 +7737,7 @@
       <c r="M95">
         <v>29.7112563998034</v>
       </c>
-      <c r="O95" s="3">
+      <c r="O95">
         <f t="shared" si="6"/>
         <v>0.34841557413125196</v>
       </c>
@@ -7792,7 +7784,7 @@
       <c r="M96">
         <v>21.506306962165599</v>
       </c>
-      <c r="O96" s="3">
+      <c r="O96">
         <f t="shared" si="6"/>
         <v>0.19350991214021848</v>
       </c>
@@ -7839,7 +7831,7 @@
       <c r="M97">
         <v>16.629129123134099</v>
       </c>
-      <c r="O97" s="3">
+      <c r="O97">
         <f t="shared" si="6"/>
         <v>0.56538123319755762</v>
       </c>
@@ -7886,7 +7878,7 @@
       <c r="M98">
         <v>40.573604499038602</v>
       </c>
-      <c r="O98" s="3">
+      <c r="O98">
         <f t="shared" si="6"/>
         <v>0.11581275044755501</v>
       </c>
@@ -7933,7 +7925,7 @@
       <c r="M99">
         <v>14.305795456004001</v>
       </c>
-      <c r="O99" s="3">
+      <c r="O99">
         <f t="shared" si="6"/>
         <v>0.27120707383288201</v>
       </c>
@@ -7980,7 +7972,7 @@
       <c r="M100">
         <v>33.485023736094199</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100">
         <f t="shared" si="6"/>
         <v>0.57906375223777506</v>
       </c>
@@ -8027,7 +8019,7 @@
       <c r="M101">
         <v>21.970868618789101</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101">
         <f t="shared" si="6"/>
         <v>4.0334111484983923</v>
       </c>
@@ -8074,7 +8066,7 @@
       <c r="M102">
         <v>45.410587895724298</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102">
         <f t="shared" si="6"/>
         <v>0.29270817518179515</v>
       </c>
@@ -8121,7 +8113,7 @@
       <c r="M103">
         <v>30.2921064618046</v>
       </c>
-      <c r="O103" s="3">
+      <c r="O103">
         <f t="shared" si="6"/>
         <v>0.31176596955924091</v>
       </c>
@@ -8168,7 +8160,7 @@
       <c r="M104">
         <v>17.8698593698415</v>
       </c>
-      <c r="O104" s="3">
+      <c r="O104">
         <f t="shared" si="6"/>
         <v>4.6007470272731243</v>
       </c>
@@ -8215,7 +8207,7 @@
       <c r="M105">
         <v>28.408576401135999</v>
       </c>
-      <c r="O105" s="3">
+      <c r="O105">
         <f t="shared" si="6"/>
         <v>1.4151633978739211</v>
       </c>
@@ -8262,7 +8254,7 @@
       <c r="M106">
         <v>20.6063118504442</v>
       </c>
-      <c r="O106" s="3">
+      <c r="O106">
         <f t="shared" si="6"/>
         <v>4.2914243646853505</v>
       </c>
@@ -8309,7 +8301,7 @@
       <c r="M107">
         <v>30.230319666305601</v>
       </c>
-      <c r="O107" s="3">
+      <c r="O107">
         <f t="shared" si="6"/>
         <v>0.23700077623233831</v>
       </c>
@@ -8356,7 +8348,7 @@
       <c r="M108">
         <v>43.432865288748403</v>
       </c>
-      <c r="O108" s="3">
+      <c r="O108">
         <f t="shared" si="6"/>
         <v>0.63721445815869926</v>
       </c>
@@ -8403,7 +8395,7 @@
       <c r="M109">
         <v>49.353888520223997</v>
       </c>
-      <c r="O109" s="3">
+      <c r="O109">
         <f t="shared" si="6"/>
         <v>0.8761698799682115</v>
       </c>
@@ -8450,7 +8442,7 @@
       <c r="M110">
         <v>36.976699888902999</v>
       </c>
-      <c r="O110" s="3">
+      <c r="O110">
         <f t="shared" si="6"/>
         <v>1.8784143996641411</v>
       </c>
@@ -8497,7 +8489,7 @@
       <c r="M111">
         <v>29.624285178469201</v>
       </c>
-      <c r="O111" s="3">
+      <c r="O111">
         <f t="shared" si="6"/>
         <v>1.5793536263565306</v>
       </c>
@@ -8544,7 +8536,7 @@
       <c r="M112">
         <v>24.531239372336699</v>
       </c>
-      <c r="O112" s="3">
+      <c r="O112">
         <f t="shared" si="6"/>
         <v>0.42318076745815458</v>
       </c>
@@ -8591,7 +8583,7 @@
       <c r="M113">
         <v>34.767690592528197</v>
       </c>
-      <c r="O113" s="3">
+      <c r="O113">
         <f t="shared" si="6"/>
         <v>0.44419320741277429</v>
       </c>
@@ -8638,7 +8630,7 @@
       <c r="M114">
         <v>27.361243547539001</v>
       </c>
-      <c r="O114" s="3">
+      <c r="O114">
         <f t="shared" si="6"/>
         <v>1.5427040217845196</v>
       </c>
@@ -8685,7 +8677,7 @@
       <c r="M115">
         <v>36.170952679625898</v>
       </c>
-      <c r="O115" s="3">
+      <c r="O115">
         <f t="shared" si="6"/>
         <v>2.8904321472459404</v>
       </c>
@@ -8732,7 +8724,7 @@
       <c r="M116">
         <v>36.422497828378098</v>
       </c>
-      <c r="O116" s="3">
+      <c r="O116">
         <f t="shared" si="6"/>
         <v>1.5505226040932154</v>
       </c>
@@ -8779,7 +8771,7 @@
       <c r="M117">
         <v>45.999632104567503</v>
       </c>
-      <c r="O117" s="3">
+      <c r="O117">
         <f t="shared" si="6"/>
         <v>2.3607231958318069</v>
       </c>
@@ -8826,7 +8818,7 @@
       <c r="M118">
         <v>8.8315875215785802</v>
       </c>
-      <c r="O118" s="3">
+      <c r="O118">
         <f t="shared" si="6"/>
         <v>0.30394738725054521</v>
       </c>
@@ -8873,7 +8865,7 @@
       <c r="M119">
         <v>36.9453209199973</v>
       </c>
-      <c r="O119" s="3">
+      <c r="O119">
         <f t="shared" si="6"/>
         <v>0.44956848275000255</v>
       </c>
@@ -8920,7 +8912,7 @@
       <c r="M120">
         <v>17.718048827880899</v>
       </c>
-      <c r="O120" s="3">
+      <c r="O120">
         <f t="shared" si="6"/>
         <v>0.33180108672527364</v>
       </c>
@@ -8967,7 +8959,7 @@
       <c r="M121">
         <v>21.292197950842699</v>
       </c>
-      <c r="O121" s="3">
+      <c r="O121">
         <f t="shared" si="6"/>
         <v>1.1996637229904961</v>
       </c>
@@ -9014,7 +9006,7 @@
       <c r="M122">
         <v>13.508923976847701</v>
       </c>
-      <c r="O122" s="3">
+      <c r="O122">
         <f t="shared" si="6"/>
         <v>0.44517053020136121</v>
       </c>
@@ -9061,7 +9053,7 @@
       <c r="M123">
         <v>34.224882479364901</v>
       </c>
-      <c r="O123" s="3">
+      <c r="O123">
         <f t="shared" si="6"/>
         <v>2.1378936000339794</v>
       </c>
@@ -9108,7 +9100,7 @@
       <c r="M124">
         <v>17.465972222866601</v>
       </c>
-      <c r="O124" s="3">
+      <c r="O124">
         <f t="shared" si="6"/>
         <v>1.3262270241125076</v>
       </c>
@@ -9155,7 +9147,7 @@
       <c r="M125">
         <v>13.406366254879901</v>
       </c>
-      <c r="O125" s="3">
+      <c r="O125">
         <f t="shared" si="6"/>
         <v>0.97781144998125558</v>
       </c>
@@ -9202,7 +9194,7 @@
       <c r="M126">
         <v>47.384161843374102</v>
       </c>
-      <c r="O126" s="3">
+      <c r="O126">
         <f t="shared" si="6"/>
         <v>1.1903791564989199</v>
       </c>
@@ -9249,7 +9241,7 @@
       <c r="M127">
         <v>20.662246178301</v>
       </c>
-      <c r="O127" s="3">
+      <c r="O127">
         <f t="shared" si="6"/>
         <v>0.12802928530489202</v>
       </c>
@@ -9296,7 +9288,7 @@
       <c r="M128">
         <v>31.859853273803498</v>
       </c>
-      <c r="O128" s="3">
+      <c r="O128">
         <f t="shared" si="6"/>
         <v>0.65285162277609066</v>
       </c>
@@ -9343,7 +9335,7 @@
       <c r="M129">
         <v>38.050192953347398</v>
       </c>
-      <c r="O129" s="3">
+      <c r="O129">
         <f t="shared" si="6"/>
         <v>1.2084596280877786</v>
       </c>
@@ -9390,7 +9382,7 @@
       <c r="M130">
         <v>25.771120709974198</v>
       </c>
-      <c r="O130" s="3">
+      <c r="O130">
         <f t="shared" si="6"/>
         <v>1.1190345929320715</v>
       </c>
@@ -9437,7 +9429,7 @@
       <c r="M131">
         <v>28.0022245518213</v>
       </c>
-      <c r="O131" s="3">
+      <c r="O131">
         <f t="shared" si="6"/>
         <v>0.67093209436494949</v>
       </c>
@@ -9484,7 +9476,7 @@
       <c r="M132">
         <v>29.5876006095028</v>
       </c>
-      <c r="O132" s="3">
+      <c r="O132">
         <f t="shared" si="6"/>
         <v>7.3128177656019435</v>
       </c>
@@ -9531,7 +9523,7 @@
       <c r="M133">
         <v>15.248749348887101</v>
       </c>
-      <c r="O133" s="3">
+      <c r="O133">
         <f t="shared" si="6"/>
         <v>0.51944706213397041</v>
       </c>
@@ -9578,7 +9570,7 @@
       <c r="M134">
         <v>20.7666019856172</v>
       </c>
-      <c r="O134" s="3">
+      <c r="O134">
         <f t="shared" si="6"/>
         <v>1.0902035706687563</v>
       </c>
@@ -9625,7 +9617,7 @@
       <c r="M135">
         <v>24.5145996478626</v>
       </c>
-      <c r="O135" s="3">
+      <c r="O135">
         <f t="shared" ref="O135:O198" si="10">I135*$P$5</f>
         <v>0.34939289691983894</v>
       </c>
@@ -9672,7 +9664,7 @@
       <c r="M136">
         <v>15.9761426010988</v>
       </c>
-      <c r="O136" s="3">
+      <c r="O136">
         <f t="shared" si="10"/>
         <v>0.78967681317826532</v>
       </c>
@@ -9719,7 +9711,7 @@
       <c r="M137">
         <v>18.105145953855999</v>
       </c>
-      <c r="O137" s="3">
+      <c r="O137">
         <f t="shared" si="10"/>
         <v>0.63770311955299275</v>
       </c>
@@ -9766,7 +9758,7 @@
       <c r="M138">
         <v>31.127880361636802</v>
       </c>
-      <c r="O138" s="3">
+      <c r="O138">
         <f t="shared" si="10"/>
         <v>1.2827361600203877</v>
       </c>
@@ -9813,7 +9805,7 @@
       <c r="M139">
         <v>14.2563982918079</v>
       </c>
-      <c r="O139" s="3">
+      <c r="O139">
         <f t="shared" si="10"/>
         <v>0.9577763328152229</v>
       </c>
@@ -9860,7 +9852,7 @@
       <c r="M140">
         <v>16.809467093781301</v>
       </c>
-      <c r="O140" s="3">
+      <c r="O140">
         <f t="shared" si="10"/>
         <v>0.73934468956603683</v>
       </c>
@@ -9907,7 +9899,7 @@
       <c r="M141">
         <v>21.742962526344201</v>
       </c>
-      <c r="O141" s="3">
+      <c r="O141">
         <f t="shared" si="10"/>
         <v>0.26632045988994718</v>
       </c>
@@ -9954,7 +9946,7 @@
       <c r="M142">
         <v>32.507702539798501</v>
       </c>
-      <c r="O142" s="3">
+      <c r="O142">
         <f t="shared" si="10"/>
         <v>2.5444598800861558</v>
       </c>
@@ -10001,7 +9993,7 @@
       <c r="M143">
         <v>14.481003462899301</v>
       </c>
-      <c r="O143" s="3">
+      <c r="O143">
         <f t="shared" si="10"/>
         <v>0.69438784129103659</v>
       </c>
@@ -10018,7 +10010,6 @@
       <c r="A144" t="s">
         <v>2</v>
       </c>
-      <c r="O144" s="3"/>
       <c r="R144">
         <f t="shared" si="12"/>
         <v>869.32862044810281</v>
@@ -10059,7 +10050,7 @@
       <c r="M145">
         <v>25.232577979011801</v>
       </c>
-      <c r="O145" s="3">
+      <c r="O145">
         <f t="shared" si="10"/>
         <v>0.49696863799647023</v>
       </c>
@@ -10106,7 +10097,7 @@
       <c r="M146">
         <v>35.250879071841197</v>
       </c>
-      <c r="O146" s="3">
+      <c r="O146">
         <f t="shared" si="10"/>
         <v>0.97145885185544034</v>
       </c>
@@ -10153,7 +10144,7 @@
       <c r="M147">
         <v>39.915325778485702</v>
       </c>
-      <c r="O147" s="3">
+      <c r="O147">
         <f t="shared" si="10"/>
         <v>0.86932862044810277</v>
       </c>
@@ -10200,7 +10191,7 @@
       <c r="M148">
         <v>47.540260347585601</v>
       </c>
-      <c r="O148" s="3">
+      <c r="O148">
         <f t="shared" si="10"/>
         <v>1.2333813591967462</v>
       </c>
@@ -10247,7 +10238,7 @@
       <c r="M149">
         <v>27.6126854978233</v>
       </c>
-      <c r="O149" s="3">
+      <c r="O149">
         <f t="shared" si="10"/>
         <v>0.39581572937771964</v>
       </c>
@@ -10294,7 +10285,7 @@
       <c r="M150">
         <v>12.3689086486989</v>
       </c>
-      <c r="O150" s="3">
+      <c r="O150">
         <f t="shared" si="10"/>
         <v>0.84294090515625486</v>
       </c>
@@ -10341,7 +10332,7 @@
       <c r="M151">
         <v>7.3288841405247398</v>
       </c>
-      <c r="O151" s="3">
+      <c r="O151">
         <f t="shared" si="10"/>
         <v>1.031075541959245</v>
       </c>
@@ -10388,7 +10379,7 @@
       <c r="M152">
         <v>15.4460769362116</v>
       </c>
-      <c r="O152" s="3">
+      <c r="O152">
         <f t="shared" si="10"/>
         <v>3.9459407589198596</v>
       </c>
@@ -10435,7 +10426,7 @@
       <c r="M153">
         <v>32.8000310751965</v>
       </c>
-      <c r="O153" s="3">
+      <c r="O153">
         <f t="shared" si="10"/>
         <v>1.0887375864858757</v>
       </c>
@@ -10482,7 +10473,7 @@
       <c r="M154">
         <v>58.283623417367203</v>
       </c>
-      <c r="O154" s="3">
+      <c r="O154">
         <f t="shared" si="10"/>
         <v>2.5943033423040909</v>
       </c>
@@ -10529,7 +10520,7 @@
       <c r="M155">
         <v>26.205693791900199</v>
       </c>
-      <c r="O155" s="3">
+      <c r="O155">
         <f t="shared" si="10"/>
         <v>0.34059699182255632</v>
       </c>
@@ -10576,7 +10567,7 @@
       <c r="M156">
         <v>14.3641053375915</v>
       </c>
-      <c r="O156" s="3">
+      <c r="O156">
         <f t="shared" si="10"/>
         <v>5.1226373963785621</v>
       </c>
@@ -10623,7 +10614,7 @@
       <c r="M157">
         <v>32.724598736510501</v>
       </c>
-      <c r="O157" s="3">
+      <c r="O157">
         <f t="shared" si="10"/>
         <v>0.9499577505065272</v>
       </c>
@@ -10670,7 +10661,7 @@
       <c r="M158">
         <v>28.553574665703</v>
       </c>
-      <c r="O158" s="3">
+      <c r="O158">
         <f t="shared" si="10"/>
         <v>1.869129833172565</v>
       </c>
@@ -10717,7 +10708,7 @@
       <c r="M159">
         <v>23.746248239359598</v>
       </c>
-      <c r="O159" s="3">
+      <c r="O159">
         <f t="shared" si="10"/>
         <v>4.4228742797502969</v>
       </c>
@@ -10764,7 +10755,7 @@
       <c r="M160">
         <v>12.0054734513583</v>
       </c>
-      <c r="O160" s="3">
+      <c r="O160">
         <f t="shared" si="10"/>
         <v>0.67386406273071031</v>
       </c>
@@ -10811,7 +10802,7 @@
       <c r="M161">
         <v>11.140339572838601</v>
       </c>
-      <c r="O161" s="3">
+      <c r="O161">
         <f t="shared" si="10"/>
         <v>5.4070383278573679</v>
       </c>
@@ -10858,7 +10849,7 @@
       <c r="M162">
         <v>24.169938851615999</v>
       </c>
-      <c r="O162" s="3">
+      <c r="O162">
         <f t="shared" si="10"/>
         <v>2.9612880494184952</v>
       </c>
@@ -10905,7 +10896,7 @@
       <c r="M163">
         <v>23.136435699640298</v>
       </c>
-      <c r="O163" s="3">
+      <c r="O163">
         <f t="shared" si="10"/>
         <v>0.47302422967608965</v>
       </c>
@@ -10952,7 +10943,7 @@
       <c r="M164">
         <v>15.720805979391899</v>
       </c>
-      <c r="O164" s="3">
+      <c r="O164">
         <f t="shared" si="10"/>
         <v>0.48475210313913319</v>
       </c>
@@ -10999,7 +10990,7 @@
       <c r="M165">
         <v>10.5859781248417</v>
       </c>
-      <c r="O165" s="3">
+      <c r="O165">
         <f t="shared" si="10"/>
         <v>1.3169424576209314</v>
       </c>
@@ -11046,7 +11037,7 @@
       <c r="M166">
         <v>18.1106339422372</v>
       </c>
-      <c r="O166" s="3">
+      <c r="O166">
         <f t="shared" si="10"/>
         <v>0.43539730231549162</v>
       </c>
@@ -11093,7 +11084,7 @@
       <c r="M167">
         <v>45.904122390030203</v>
       </c>
-      <c r="O167" s="3">
+      <c r="O167">
         <f t="shared" si="10"/>
         <v>7.1329903725019426</v>
       </c>
@@ -11140,7 +11131,7 @@
       <c r="M168">
         <v>25.619458532990599</v>
       </c>
-      <c r="O168" s="3">
+      <c r="O168">
         <f t="shared" si="10"/>
         <v>0.57906375223777506</v>
       </c>
@@ -11187,7 +11178,7 @@
       <c r="M169">
         <v>48.613013963587498</v>
       </c>
-      <c r="O169" s="3">
+      <c r="O169">
         <f t="shared" si="10"/>
         <v>3.5735807764682268</v>
       </c>
@@ -11234,7 +11225,7 @@
       <c r="M170">
         <v>24.294308557243799</v>
       </c>
-      <c r="O170" s="3">
+      <c r="O170">
         <f t="shared" si="10"/>
         <v>0.70513839196549311</v>
       </c>
@@ -11281,7 +11272,7 @@
       <c r="M171">
         <v>25.013919795912798</v>
       </c>
-      <c r="O171" s="3">
+      <c r="O171">
         <f t="shared" si="10"/>
         <v>1.3579900147415838</v>
       </c>
@@ -11328,7 +11319,7 @@
       <c r="M172">
         <v>14.289278748593199</v>
       </c>
-      <c r="O172" s="3">
+      <c r="O172">
         <f t="shared" si="10"/>
         <v>0.63770311955299275</v>
       </c>
@@ -11375,7 +11366,7 @@
       <c r="M173">
         <v>31.997511552510201</v>
       </c>
-      <c r="O173" s="3">
+      <c r="O173">
         <f t="shared" si="10"/>
         <v>1.0501333363366907</v>
       </c>
@@ -11422,7 +11413,7 @@
       <c r="M174">
         <v>54.188554046556902</v>
       </c>
-      <c r="O174" s="3">
+      <c r="O174">
         <f t="shared" si="10"/>
         <v>1.2920207265119639</v>
       </c>
@@ -11436,7 +11427,6 @@
       </c>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="O175" s="3"/>
       <c r="R175">
         <f t="shared" si="13"/>
         <v>697.80847105109092</v>
@@ -11480,7 +11470,7 @@
       <c r="M176">
         <v>30.708226530850901</v>
       </c>
-      <c r="O176" s="3">
+      <c r="O176">
         <f t="shared" si="10"/>
         <v>0.96950420627826639</v>
       </c>
@@ -11527,7 +11517,7 @@
       <c r="M177">
         <v>31.324641425557601</v>
       </c>
-      <c r="O177" s="3">
+      <c r="O177">
         <f t="shared" si="10"/>
         <v>4.2562407442962202</v>
       </c>
@@ -11574,7 +11564,7 @@
       <c r="M178">
         <v>42.684069809961201</v>
       </c>
-      <c r="O178" s="3">
+      <c r="O178">
         <f t="shared" si="10"/>
         <v>2.0445592737239249</v>
       </c>
@@ -11621,7 +11611,7 @@
       <c r="M179">
         <v>22.368515518519398</v>
       </c>
-      <c r="O179" s="3">
+      <c r="O179">
         <f t="shared" si="10"/>
         <v>0.6978084710510909</v>
       </c>
@@ -11668,7 +11658,7 @@
       <c r="M180">
         <v>44.348762997539403</v>
       </c>
-      <c r="O180" s="3">
+      <c r="O180">
         <f t="shared" si="10"/>
         <v>0.57613178387201414</v>
       </c>
@@ -11715,7 +11705,7 @@
       <c r="M181">
         <v>20.968425020698099</v>
       </c>
-      <c r="O181" s="3">
+      <c r="O181">
         <f t="shared" si="10"/>
         <v>1.5446586673616935</v>
       </c>
@@ -11762,7 +11752,7 @@
       <c r="M182">
         <v>25.468212568711699</v>
       </c>
-      <c r="O182" s="3">
+      <c r="O182">
         <f t="shared" si="10"/>
         <v>0.92308137382038569</v>
       </c>
@@ -11809,7 +11799,7 @@
       <c r="M183">
         <v>23.2287533997122</v>
       </c>
-      <c r="O183" s="3">
+      <c r="O183">
         <f t="shared" si="10"/>
         <v>0.8527141330421244</v>
       </c>
@@ -11856,7 +11846,7 @@
       <c r="M184">
         <v>23.6651174139879</v>
       </c>
-      <c r="O184" s="3">
+      <c r="O184">
         <f t="shared" si="10"/>
         <v>2.2317165877383278</v>
       </c>
@@ -11903,7 +11893,7 @@
       <c r="M185">
         <v>39.316137145931798</v>
       </c>
-      <c r="O185" s="3">
+      <c r="O185">
         <f t="shared" si="10"/>
         <v>1.0110404247932123</v>
       </c>
@@ -11950,7 +11940,7 @@
       <c r="M186">
         <v>16.7829060909588</v>
       </c>
-      <c r="O186" s="3">
+      <c r="O186">
         <f t="shared" si="10"/>
         <v>1.0369394786907669</v>
       </c>
@@ -11997,7 +11987,7 @@
       <c r="M187">
         <v>40.446874371316198</v>
       </c>
-      <c r="O187" s="3">
+      <c r="O187">
         <f t="shared" si="10"/>
         <v>0.42513541303532854</v>
       </c>
@@ -12044,7 +12034,7 @@
       <c r="M188">
         <v>37.885615554856699</v>
       </c>
-      <c r="O188" s="3">
+      <c r="O188">
         <f t="shared" si="10"/>
         <v>0.42660139721820894</v>
       </c>
@@ -12091,7 +12081,7 @@
       <c r="M189">
         <v>29.769101030492301</v>
       </c>
-      <c r="O189" s="3">
+      <c r="O189">
         <f t="shared" si="10"/>
         <v>2.3597458730432201</v>
       </c>
@@ -12138,7 +12128,7 @@
       <c r="M190">
         <v>24.1443259372999</v>
       </c>
-      <c r="O190" s="3">
+      <c r="O190">
         <f t="shared" si="10"/>
         <v>0.78039224668668927</v>
       </c>
@@ -12152,7 +12142,6 @@
       </c>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="O191" s="3"/>
       <c r="R191">
         <f t="shared" si="14"/>
         <v>275.11636498722987</v>
@@ -12196,7 +12185,7 @@
       <c r="M192">
         <v>33.670761275660297</v>
       </c>
-      <c r="O192" s="3">
+      <c r="O192">
         <f t="shared" si="10"/>
         <v>1.8495833774008257</v>
       </c>
@@ -12243,7 +12232,7 @@
       <c r="M193">
         <v>26.293605140116998</v>
       </c>
-      <c r="O193" s="3">
+      <c r="O193">
         <f t="shared" si="10"/>
         <v>3.0272573376481149</v>
       </c>
@@ -12290,7 +12279,7 @@
       <c r="M194">
         <v>27.259066871056799</v>
       </c>
-      <c r="O194" s="3">
+      <c r="O194">
         <f t="shared" si="10"/>
         <v>0.9304112947347879</v>
       </c>
@@ -12337,7 +12326,7 @@
       <c r="M195">
         <v>44.044849833398203</v>
       </c>
-      <c r="O195" s="3">
+      <c r="O195">
         <f t="shared" si="10"/>
         <v>1.5920588226081613</v>
       </c>
@@ -12384,7 +12373,7 @@
       <c r="M196">
         <v>39.8085731623013</v>
       </c>
-      <c r="O196" s="3">
+      <c r="O196">
         <f t="shared" si="10"/>
         <v>0.27511636498722986</v>
       </c>
@@ -12431,7 +12420,7 @@
       <c r="M197">
         <v>26.633811383379602</v>
       </c>
-      <c r="O197" s="3">
+      <c r="O197">
         <f t="shared" si="10"/>
         <v>0.34401762158261068</v>
       </c>
@@ -12478,7 +12467,7 @@
       <c r="M198">
         <v>40.383629475152397</v>
       </c>
-      <c r="O198" s="3">
+      <c r="O198">
         <f t="shared" si="10"/>
         <v>0.2296708553179361</v>
       </c>
@@ -12521,7 +12510,7 @@
       <c r="M199">
         <v>18.984432575584002</v>
       </c>
-      <c r="O199" s="3">
+      <c r="O199">
         <f t="shared" ref="O199:O202" si="15">I199*$P$5</f>
         <v>0.54143682487717704</v>
       </c>
@@ -12564,7 +12553,7 @@
       <c r="M200">
         <v>18.156232852132401</v>
       </c>
-      <c r="O200" s="3">
+      <c r="O200">
         <f t="shared" si="15"/>
         <v>0.43588596370978511</v>
       </c>
@@ -12607,7 +12596,7 @@
       <c r="M201">
         <v>29.050356042745602</v>
       </c>
-      <c r="O201" s="3">
+      <c r="O201">
         <f t="shared" si="15"/>
         <v>1.9922725045345222</v>
       </c>
@@ -12650,7 +12639,7 @@
       <c r="M202">
         <v>26.777920307448699</v>
       </c>
-      <c r="O202" s="3">
+      <c r="O202">
         <f t="shared" si="15"/>
         <v>0.2032831400260881</v>
       </c>
@@ -12666,10 +12655,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5324448-447B-4C06-8920-F370AA1CA0B4}">
-  <dimension ref="B3:V177"/>
+  <dimension ref="B3:W177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="W5" sqref="W5:W177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12679,7 +12668,7 @@
     <col min="21" max="21" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -12693,7 +12682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -12740,8 +12729,11 @@
         <f>SQRT(P4)*1000</f>
         <v>22.105686921999983</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>-104.701250887748</v>
       </c>
@@ -12775,7 +12767,7 @@
       <c r="M5">
         <v>22.9934724413068</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5">
         <f>I5*$P$4</f>
         <v>0.53068627420272041</v>
       </c>
@@ -12784,8 +12776,12 @@
         <f>F5*$V$4</f>
         <v>752.70190561286893</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="1">
+        <f>U5*V$4</f>
+        <v>16638.992671070861</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>-104.701061342472</v>
       </c>
@@ -12819,7 +12815,7 @@
       <c r="M6">
         <v>24.163700604541098</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <f t="shared" ref="O6:O69" si="0">I6*$P$4</f>
         <v>1.030098219170658</v>
       </c>
@@ -12827,8 +12823,12 @@
         <f t="shared" ref="U6:U69" si="1">F6*$V$4</f>
         <v>861.40172463248837</v>
       </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="1">
+        <f t="shared" ref="W6:W69" si="2">U6*V$4</f>
+        <v>19041.876838796627</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>-104.701040100329</v>
       </c>
@@ -12862,7 +12862,7 @@
       <c r="M7">
         <v>19.2641358610325</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7">
         <f t="shared" si="0"/>
         <v>2.5200268103714816</v>
       </c>
@@ -12870,8 +12870,12 @@
         <f t="shared" si="1"/>
         <v>1394.1087725796963</v>
       </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="1">
+        <f t="shared" si="2"/>
+        <v>30817.732061860439</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>-104.701066944795</v>
       </c>
@@ -12905,7 +12909,7 @@
       <c r="M8">
         <v>23.140427107842001</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <f t="shared" si="0"/>
         <v>0.92796798776332046</v>
       </c>
@@ -12913,8 +12917,12 @@
         <f t="shared" si="1"/>
         <v>1070.0922251630993</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="1">
+        <f t="shared" si="2"/>
+        <v>23655.123707121784</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>-104.701052938987</v>
       </c>
@@ -12948,7 +12956,7 @@
       <c r="M9">
         <v>30.617449876919</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9">
         <f t="shared" si="0"/>
         <v>1.4738027651891388</v>
       </c>
@@ -12956,8 +12964,12 @@
         <f t="shared" si="1"/>
         <v>1161.1237579363408</v>
       </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="1">
+        <f t="shared" si="2"/>
+        <v>25667.438270636841</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>-104.701080250313</v>
       </c>
@@ -12991,7 +13003,7 @@
       <c r="M10">
         <v>22.153406493555401</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10">
         <f t="shared" si="0"/>
         <v>0.66702280321060159</v>
       </c>
@@ -12999,8 +13011,12 @@
         <f t="shared" si="1"/>
         <v>813.30214081997508</v>
       </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="1">
+        <f t="shared" si="2"/>
+        <v>17978.602497958713</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>-104.701031696844</v>
       </c>
@@ -13034,7 +13050,7 @@
       <c r="M11">
         <v>24.848522021374698</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11">
         <f t="shared" si="0"/>
         <v>2.9363663183095277</v>
       </c>
@@ -13042,8 +13058,12 @@
         <f t="shared" si="1"/>
         <v>1549.3788222664434</v>
       </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="1">
+        <f t="shared" si="2"/>
+        <v>34250.083168599056</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>-104.701174556091</v>
       </c>
@@ -13077,7 +13097,7 @@
       <c r="M12">
         <v>10.4371053929202</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12">
         <f t="shared" si="0"/>
         <v>5.0371216523772029</v>
       </c>
@@ -13085,8 +13105,12 @@
         <f t="shared" si="1"/>
         <v>2036.1689804770635</v>
       </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="1">
+        <f t="shared" si="2"/>
+        <v>45010.914002713864</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>-104.70107464799</v>
       </c>
@@ -13120,7 +13144,7 @@
       <c r="M13">
         <v>18.7168881308896</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13">
         <f t="shared" si="0"/>
         <v>0.76768705043505869</v>
       </c>
@@ -13128,8 +13152,12 @@
         <f t="shared" si="1"/>
         <v>714.6911091790563</v>
       </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W13" s="1">
+        <f t="shared" si="2"/>
+        <v>15798.737905449127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>-104.70109122153001</v>
       </c>
@@ -13163,7 +13191,7 @@
       <c r="M14">
         <v>34.466092703293903</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14">
         <f t="shared" si="0"/>
         <v>1.1698553779385936</v>
       </c>
@@ -13171,8 +13199,12 @@
         <f t="shared" si="1"/>
         <v>1335.4238871097623</v>
       </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W14" s="1">
+        <f t="shared" si="2"/>
+        <v>29520.462356608652</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>-104.701348461547</v>
       </c>
@@ -13206,7 +13238,7 @@
       <c r="M15">
         <v>18.718968694964101</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15">
         <f t="shared" si="0"/>
         <v>0.85222547164783091</v>
       </c>
@@ -13214,8 +13246,12 @@
         <f t="shared" si="1"/>
         <v>813.03677273147423</v>
       </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W15" s="1">
+        <f t="shared" si="2"/>
+        <v>17972.736354075223</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>-104.701255556351</v>
       </c>
@@ -13249,7 +13285,7 @@
       <c r="M16">
         <v>22.399814543188</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16">
         <f t="shared" si="0"/>
         <v>1.3076578911293553</v>
       </c>
@@ -13257,8 +13293,12 @@
         <f t="shared" si="1"/>
         <v>1303.5567611343001</v>
       </c>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W16" s="1">
+        <f t="shared" si="2"/>
+        <v>28816.017646691154</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>-104.70107441456</v>
       </c>
@@ -13292,7 +13332,7 @@
       <c r="M17">
         <v>26.921498674583098</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17">
         <f t="shared" si="0"/>
         <v>0.56733587877473146</v>
       </c>
@@ -13300,8 +13340,12 @@
         <f t="shared" si="1"/>
         <v>589.59976219414364</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W17" s="1">
+        <f t="shared" si="2"/>
+        <v>13033.50775234938</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>-104.70118902876</v>
       </c>
@@ -13335,7 +13379,7 @@
       <c r="M18">
         <v>27.333181295502701</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18">
         <f t="shared" si="0"/>
         <v>0.54339147045435088</v>
       </c>
@@ -13343,8 +13387,12 @@
         <f t="shared" si="1"/>
         <v>607.47514368632562</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W18" s="1">
+        <f t="shared" si="2"/>
+        <v>13428.655339226869</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>-104.701234781068</v>
       </c>
@@ -13378,7 +13426,7 @@
       <c r="M19">
         <v>10.1416231131525</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19">
         <f t="shared" si="0"/>
         <v>1.5456359901502805</v>
       </c>
@@ -13386,8 +13434,12 @@
         <f t="shared" si="1"/>
         <v>1068.7715186724674</v>
       </c>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W19" s="1">
+        <f t="shared" si="2"/>
+        <v>23625.928582924025</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>-104.701133238956</v>
       </c>
@@ -13421,7 +13473,7 @@
       <c r="M20">
         <v>6.91036305650315</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20">
         <f t="shared" si="0"/>
         <v>1.727906690221749</v>
       </c>
@@ -13429,8 +13481,12 @@
         <f t="shared" si="1"/>
         <v>1010.9157971773113</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W20" s="1">
+        <f t="shared" si="2"/>
+        <v>22346.988116905679</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>-104.70124832001601</v>
       </c>
@@ -13464,7 +13520,7 @@
       <c r="M21">
         <v>38.564413491812601</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21">
         <f t="shared" si="0"/>
         <v>0.68705792037663438</v>
       </c>
@@ -13472,8 +13528,12 @@
         <f t="shared" si="1"/>
         <v>1022.5233346149874</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W21" s="1">
+        <f t="shared" si="2"/>
+        <v>22603.58070543834</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>-104.701150279356</v>
       </c>
@@ -13507,7 +13567,7 @@
       <c r="M22">
         <v>23.445339485471699</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22">
         <f t="shared" si="0"/>
         <v>2.6915469597684938</v>
       </c>
@@ -13515,8 +13575,12 @@
         <f t="shared" si="1"/>
         <v>1691.8039290897118</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W22" s="1">
+        <f t="shared" si="2"/>
+        <v>37398.487989866626</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>-104.701255789781</v>
       </c>
@@ -13550,7 +13614,7 @@
       <c r="M23">
         <v>35.440825308759599</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23">
         <f t="shared" si="0"/>
         <v>0.77697161692663486</v>
       </c>
@@ -13558,8 +13622,12 @@
         <f t="shared" si="1"/>
         <v>828.32143222987759</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W23" s="1">
+        <f t="shared" si="2"/>
+        <v>18310.614251656301</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>-104.70139818216801</v>
       </c>
@@ -13593,7 +13661,7 @@
       <c r="M24">
         <v>42.150187815291801</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24">
         <f t="shared" si="0"/>
         <v>1.750385114359249</v>
       </c>
@@ -13601,8 +13669,12 @@
         <f t="shared" si="1"/>
         <v>1415.7109558461329</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W24" s="1">
+        <f t="shared" si="2"/>
+        <v>31295.263161979954</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>-104.701333755448</v>
       </c>
@@ -13636,7 +13708,7 @@
       <c r="M25">
         <v>49.526736504513501</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25">
         <f t="shared" si="0"/>
         <v>2.7487203429008309</v>
       </c>
@@ -13644,8 +13716,12 @@
         <f t="shared" si="1"/>
         <v>1905.941425640337</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W25" s="1">
+        <f t="shared" si="2"/>
+        <v>42132.144446875602</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>-104.701224743572</v>
       </c>
@@ -13679,7 +13755,7 @@
       <c r="M26">
         <v>17.2348172205675</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26">
         <f t="shared" si="0"/>
         <v>0.55707398949456843</v>
       </c>
@@ -13687,8 +13763,12 @@
         <f t="shared" si="1"/>
         <v>526.49562961538857</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W26" s="1">
+        <f t="shared" si="2"/>
+        <v>11638.547554079041</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>-104.701215172936</v>
       </c>
@@ -13722,7 +13802,7 @@
       <c r="M27">
         <v>25.840021851390201</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27">
         <f t="shared" si="0"/>
         <v>1.3716725337818012</v>
       </c>
@@ -13730,8 +13810,12 @@
         <f t="shared" si="1"/>
         <v>1097.7709286474931</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W27" s="1">
+        <f t="shared" si="2"/>
+        <v>24266.980460754665</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>-104.701145143893</v>
       </c>
@@ -13765,7 +13849,7 @@
       <c r="M28">
         <v>16.817872977057299</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28">
         <f t="shared" si="0"/>
         <v>2.3748943762663179</v>
       </c>
@@ -13773,8 +13857,12 @@
         <f t="shared" si="1"/>
         <v>1261.1930020490377</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W28" s="1">
+        <f t="shared" si="2"/>
+        <v>27879.53765151331</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>-104.70131788219901</v>
       </c>
@@ -13808,7 +13896,7 @@
       <c r="M29">
         <v>37.702371407155603</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29">
         <f t="shared" si="0"/>
         <v>0.96608357651821208</v>
       </c>
@@ -13816,8 +13904,12 @@
         <f t="shared" si="1"/>
         <v>1262.5076130432403</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W29" s="1">
+        <f t="shared" si="2"/>
+        <v>27908.598030575373</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>-104.701223576421</v>
       </c>
@@ -13851,7 +13943,7 @@
       <c r="M30">
         <v>17.115027481264502</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30">
         <f t="shared" si="0"/>
         <v>1.200641045779083</v>
       </c>
@@ -13859,8 +13951,12 @@
         <f t="shared" si="1"/>
         <v>950.54132064310477</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W30" s="1">
+        <f t="shared" si="2"/>
+        <v>21012.368840560874</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>-104.701266060707</v>
       </c>
@@ -13894,7 +13990,7 @@
       <c r="M31">
         <v>35.270136832281104</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31">
         <f t="shared" si="0"/>
         <v>1.9781013241000114</v>
       </c>
@@ -13902,8 +13998,12 @@
         <f t="shared" si="1"/>
         <v>1151.6496139410292</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W31" s="1">
+        <f t="shared" si="2"/>
+        <v>25458.005809622537</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>-104.701155414819</v>
       </c>
@@ -13937,7 +14037,7 @@
       <c r="M32">
         <v>20.903619717777701</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32">
         <f t="shared" si="0"/>
         <v>0.60594012892391647</v>
       </c>
@@ -13945,8 +14045,12 @@
         <f t="shared" si="1"/>
         <v>727.70785897751909</v>
       </c>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W32" s="1">
+        <f t="shared" si="2"/>
+        <v>16086.482101235952</v>
+      </c>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>-104.70120350142901</v>
       </c>
@@ -13980,7 +14084,7 @@
       <c r="M33">
         <v>29.9655697150157</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33">
         <f t="shared" si="0"/>
         <v>0.49403666963070936</v>
       </c>
@@ -13988,8 +14092,12 @@
         <f t="shared" si="1"/>
         <v>695.15487802293273</v>
       </c>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W33" s="1">
+        <f t="shared" si="2"/>
+        <v>15366.876095876038</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>-104.701443934476</v>
       </c>
@@ -14023,7 +14131,7 @@
       <c r="M34">
         <v>33.741686908705503</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34">
         <f t="shared" si="0"/>
         <v>0.59421225546087297</v>
       </c>
@@ -14031,8 +14139,12 @@
         <f t="shared" si="1"/>
         <v>755.4732109966111</v>
       </c>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W34" s="1">
+        <f t="shared" si="2"/>
+        <v>16700.254280249119</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>-104.701330020566</v>
       </c>
@@ -14066,7 +14178,7 @@
       <c r="M35">
         <v>35.466890896793799</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35">
         <f t="shared" si="0"/>
         <v>1.0765210516285388</v>
       </c>
@@ -14074,8 +14186,12 @@
         <f t="shared" si="1"/>
         <v>1021.5654547889326</v>
       </c>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W35" s="1">
+        <f t="shared" si="2"/>
+        <v>22582.406113894671</v>
+      </c>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>-104.701318815919</v>
       </c>
@@ -14109,7 +14225,7 @@
       <c r="M36">
         <v>43.4798980826994</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36">
         <f t="shared" si="0"/>
         <v>1.6204011834771832</v>
       </c>
@@ -14117,8 +14233,12 @@
         <f t="shared" si="1"/>
         <v>1444.4068335650468</v>
       </c>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W36" s="1">
+        <f t="shared" si="2"/>
+        <v>31929.605250786259</v>
+      </c>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>-104.70143786529199</v>
       </c>
@@ -14152,7 +14272,7 @@
       <c r="M37">
         <v>32.9051785147728</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37">
         <f t="shared" si="0"/>
         <v>0.8800791711225594</v>
       </c>
@@ -14160,8 +14280,12 @@
         <f t="shared" si="1"/>
         <v>1030.1721860446228</v>
       </c>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W37" s="1">
+        <f t="shared" si="2"/>
+        <v>22772.663820454749</v>
+      </c>
+    </row>
+    <row r="38" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>-104.701038232888</v>
       </c>
@@ -14195,7 +14319,7 @@
       <c r="M38">
         <v>21.111496358967699</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38">
         <f t="shared" si="0"/>
         <v>0.36356407735434992</v>
       </c>
@@ -14203,8 +14327,12 @@
         <f t="shared" si="1"/>
         <v>510.89880336154323</v>
       </c>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W38" s="1">
+        <f t="shared" si="2"/>
+        <v>11293.768995934706</v>
+      </c>
+    </row>
+    <row r="39" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>-104.70104290149099</v>
       </c>
@@ -14238,7 +14366,7 @@
       <c r="M39">
         <v>21.400822142440301</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39">
         <f t="shared" si="0"/>
         <v>0.42024879909239371</v>
       </c>
@@ -14246,8 +14374,12 @@
         <f t="shared" si="1"/>
         <v>643.69367040545751</v>
       </c>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W39" s="1">
+        <f t="shared" si="2"/>
+        <v>14229.29075165609</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>-104.701118766287</v>
       </c>
@@ -14281,7 +14413,7 @@
       <c r="M40">
         <v>18.046754779710099</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40">
         <f t="shared" si="0"/>
         <v>4.6540111192511135</v>
       </c>
@@ -14289,8 +14421,12 @@
         <f t="shared" si="1"/>
         <v>1765.9882284300045</v>
       </c>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W40" s="1">
+        <f t="shared" si="2"/>
+        <v>39038.38288561107</v>
+      </c>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>-104.70120723631101</v>
       </c>
@@ -14324,7 +14460,7 @@
       <c r="M41">
         <v>54.956777861703202</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41">
         <f t="shared" si="0"/>
         <v>1.4884626070179432</v>
       </c>
@@ -14332,8 +14468,12 @@
         <f t="shared" si="1"/>
         <v>1636.5587584983316</v>
       </c>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W41" s="1">
+        <f t="shared" si="2"/>
+        <v>36177.255544821099</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>-104.701037065737</v>
       </c>
@@ -14367,7 +14507,7 @@
       <c r="M42">
         <v>15.9433264923997</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42">
         <f t="shared" si="0"/>
         <v>0.87372657299674417</v>
       </c>
@@ -14375,8 +14515,12 @@
         <f t="shared" si="1"/>
         <v>680.5304788483669</v>
       </c>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W42" s="1">
+        <f t="shared" si="2"/>
+        <v>15043.59370630073</v>
+      </c>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>-104.701171054639</v>
       </c>
@@ -14410,7 +14554,7 @@
       <c r="M43">
         <v>28.6825368139944</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43">
         <f t="shared" si="0"/>
         <v>0.44419320741277429</v>
       </c>
@@ -14418,8 +14562,12 @@
         <f t="shared" si="1"/>
         <v>591.3734748889251</v>
       </c>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W43" s="1">
+        <f t="shared" si="2"/>
+        <v>13072.716889869796</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>-104.701370637411</v>
       </c>
@@ -14453,7 +14601,7 @@
       <c r="M44">
         <v>22.862566429861801</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44">
         <f t="shared" si="0"/>
         <v>0.27560502638152329</v>
       </c>
@@ -14461,8 +14609,12 @@
         <f t="shared" si="1"/>
         <v>655.31247836285206</v>
       </c>
-    </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W44" s="1">
+        <f t="shared" si="2"/>
+        <v>14486.132482769095</v>
+      </c>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>-104.701258357512</v>
       </c>
@@ -14496,7 +14648,7 @@
       <c r="M45">
         <v>12.7519212695353</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45">
         <f t="shared" si="0"/>
         <v>0.38115588754891522</v>
       </c>
@@ -14504,8 +14656,12 @@
         <f t="shared" si="1"/>
         <v>581.96006576462116</v>
       </c>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W45" s="1">
+        <f t="shared" si="2"/>
+        <v>12864.627014899235</v>
+      </c>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>-104.701167319757</v>
       </c>
@@ -14539,7 +14695,7 @@
       <c r="M46">
         <v>25.1569853257568</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46">
         <f t="shared" si="0"/>
         <v>0.22722754834646869</v>
       </c>
@@ -14547,8 +14703,12 @@
         <f t="shared" si="1"/>
         <v>556.48924052175403</v>
       </c>
-    </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W46" s="1">
+        <f t="shared" si="2"/>
+        <v>12301.57692643544</v>
+      </c>
+    </row>
+    <row r="47" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>-104.701267461288</v>
       </c>
@@ -14582,7 +14742,7 @@
       <c r="M47">
         <v>22.8238222188041</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47">
         <f t="shared" si="0"/>
         <v>0.3137206151364148</v>
       </c>
@@ -14590,8 +14750,12 @@
         <f t="shared" si="1"/>
         <v>591.57019845593834</v>
       </c>
-    </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W47" s="1">
+        <f t="shared" si="2"/>
+        <v>13077.065599452369</v>
+      </c>
+    </row>
+    <row r="48" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>-104.701252988619</v>
       </c>
@@ -14625,7 +14789,7 @@
       <c r="M48">
         <v>30.6001248759402</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48">
         <f t="shared" si="0"/>
         <v>0.35818880201712161</v>
       </c>
@@ -14633,8 +14797,12 @@
         <f t="shared" si="1"/>
         <v>556.11452605518434</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W48" s="1">
+        <f t="shared" si="2"/>
+        <v>12293.293605752307</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>-104.701431562678</v>
       </c>
@@ -14668,7 +14836,7 @@
       <c r="M49">
         <v>21.458378515039701</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49">
         <f t="shared" si="0"/>
         <v>0.32202785883940399</v>
       </c>
@@ -14676,8 +14844,12 @@
         <f t="shared" si="1"/>
         <v>655.42137345222795</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W49" s="1">
+        <f t="shared" si="2"/>
+        <v>14488.539683522182</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>-104.701448603079</v>
       </c>
@@ -14711,7 +14883,7 @@
       <c r="M50">
         <v>18.622557074840699</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50">
         <f t="shared" si="0"/>
         <v>0.41047557120652406</v>
       </c>
@@ -14719,8 +14891,12 @@
         <f t="shared" si="1"/>
         <v>790.01605289821066</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W50" s="1">
+        <f t="shared" si="2"/>
+        <v>17463.847528722021</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>-104.701339124342</v>
       </c>
@@ -14754,7 +14930,7 @@
       <c r="M51">
         <v>21.105317231662799</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51">
         <f t="shared" si="0"/>
         <v>0.61669067959837309</v>
       </c>
@@ -14762,8 +14938,12 @@
         <f t="shared" si="1"/>
         <v>576.7488004605309</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W51" s="1">
+        <f t="shared" si="2"/>
+        <v>12749.428415619535</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>-104.70136480165699</v>
       </c>
@@ -14797,7 +14977,7 @@
       <c r="M52">
         <v>11.953185988862399</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52">
         <f t="shared" si="0"/>
         <v>0.36258675456576295</v>
       </c>
@@ -14805,8 +14985,12 @@
         <f t="shared" si="1"/>
         <v>640.68840002250033</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W52" s="1">
+        <f t="shared" si="2"/>
+        <v>14162.857185454479</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>-104.70118879533</v>
       </c>
@@ -14840,7 +15024,7 @@
       <c r="M53">
         <v>21.7363335603332</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53">
         <f t="shared" si="0"/>
         <v>0.56635855598614449</v>
       </c>
@@ -14848,8 +15032,12 @@
         <f t="shared" si="1"/>
         <v>711.31661791774729</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W53" s="1">
+        <f t="shared" si="2"/>
+        <v>15724.142458105605</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>-104.701195798234</v>
       </c>
@@ -14883,7 +15071,7 @@
       <c r="M54">
         <v>31.137018038292901</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54">
         <f t="shared" si="0"/>
         <v>3.5081001496329005</v>
       </c>
@@ -14891,8 +15079,12 @@
         <f t="shared" si="1"/>
         <v>1885.2473909985047</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W54" s="1">
+        <f t="shared" si="2"/>
+        <v>41674.688595930231</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>-104.70139724844699</v>
       </c>
@@ -14926,7 +15118,7 @@
       <c r="M55">
         <v>27.854561866385801</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O55">
         <f t="shared" si="0"/>
         <v>0.2345574692608709</v>
       </c>
@@ -14934,8 +15126,12 @@
         <f t="shared" si="1"/>
         <v>493.36692308220034</v>
       </c>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W55" s="1">
+        <f t="shared" si="2"/>
+        <v>10906.214739325567</v>
+      </c>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>-104.701178524404</v>
       </c>
@@ -14969,7 +15165,7 @@
       <c r="M56">
         <v>34.127185968752798</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56">
         <f t="shared" si="0"/>
         <v>0.44126123904701336</v>
       </c>
@@ -14977,8 +15173,12 @@
         <f t="shared" si="1"/>
         <v>739.71024611524876</v>
       </c>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W56" s="1">
+        <f t="shared" si="2"/>
+        <v>16351.803113619242</v>
+      </c>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>-104.70140215048001</v>
       </c>
@@ -15012,7 +15212,7 @@
       <c r="M57">
         <v>32.753638506806503</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57">
         <f t="shared" si="0"/>
         <v>0.91624011430027696</v>
       </c>
@@ -15020,8 +15220,12 @@
         <f t="shared" si="1"/>
         <v>766.34505416470665</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W57" s="1">
+        <f t="shared" si="2"/>
+        <v>16940.583841588123</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>-104.70123991653099</v>
       </c>
@@ -15055,7 +15259,7 @@
       <c r="M58">
         <v>39.924766785942097</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58">
         <f t="shared" si="0"/>
         <v>0.53655021093424216</v>
       </c>
@@ -15063,8 +15267,12 @@
         <f t="shared" si="1"/>
         <v>734.24853716461894</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W58" s="1">
+        <f t="shared" si="2"/>
+        <v>16231.068285497535</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>-104.701247853156</v>
       </c>
@@ -15098,7 +15306,7 @@
       <c r="M59">
         <v>46.270145053150301</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59">
         <f t="shared" si="0"/>
         <v>0.57026784714049239</v>
       </c>
@@ -15106,8 +15314,12 @@
         <f t="shared" si="1"/>
         <v>750.06097790822321</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W59" s="1">
+        <f t="shared" si="2"/>
+        <v>16580.613150048328</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>-104.701266294137</v>
       </c>
@@ -15141,7 +15353,7 @@
       <c r="M60">
         <v>36.149406157757397</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60">
         <f t="shared" si="0"/>
         <v>1.1356490803380499</v>
       </c>
@@ -15149,8 +15361,12 @@
         <f t="shared" si="1"/>
         <v>897.36652283901844</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W60" s="1">
+        <f t="shared" si="2"/>
+        <v>19836.903408163089</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>-104.70139608129701</v>
       </c>
@@ -15184,7 +15400,7 @@
       <c r="M61">
         <v>26.862821079728601</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61">
         <f t="shared" si="0"/>
         <v>0.4999006063622311</v>
       </c>
@@ -15192,8 +15408,12 @@
         <f t="shared" si="1"/>
         <v>742.46891097249465</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W61" s="1">
+        <f t="shared" si="2"/>
+        <v>16412.785295276244</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>-104.70139888245799</v>
       </c>
@@ -15227,7 +15447,7 @@
       <c r="M62">
         <v>14.068235974592</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62">
         <f t="shared" si="0"/>
         <v>0.20083983305462072</v>
       </c>
@@ -15235,8 +15455,12 @@
         <f t="shared" si="1"/>
         <v>473.90498444315227</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W62" s="1">
+        <f t="shared" si="2"/>
+        <v>10475.995216875597</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>-104.701260224954</v>
       </c>
@@ -15270,7 +15494,7 @@
       <c r="M63">
         <v>8.2974159885384093</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63">
         <f t="shared" si="0"/>
         <v>0.26925242825570805</v>
       </c>
@@ -15278,8 +15502,12 @@
         <f t="shared" si="1"/>
         <v>578.40568132928274</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W63" s="1">
+        <f t="shared" si="2"/>
+        <v>12786.054905371215</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>-104.701350795849</v>
       </c>
@@ -15313,7 +15541,7 @@
       <c r="M64">
         <v>17.788446841939098</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64">
         <f t="shared" si="0"/>
         <v>0.43979525486413296</v>
       </c>
@@ -15321,8 +15549,12 @@
         <f t="shared" si="1"/>
         <v>694.06513476971907</v>
       </c>
-    </row>
-    <row r="65" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W64" s="1">
+        <f t="shared" si="2"/>
+        <v>15342.786572695135</v>
+      </c>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>-104.70138487665</v>
       </c>
@@ -15356,7 +15588,7 @@
       <c r="M65">
         <v>28.375958292476</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O65">
         <f t="shared" si="0"/>
         <v>0.64943099301603635</v>
       </c>
@@ -15364,8 +15596,12 @@
         <f t="shared" si="1"/>
         <v>987.81705174410979</v>
       </c>
-    </row>
-    <row r="66" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W65" s="1">
+        <f t="shared" si="2"/>
+        <v>21836.37448206835</v>
+      </c>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>-104.70135289672</v>
       </c>
@@ -15399,7 +15635,7 @@
       <c r="M66">
         <v>19.4429592379221</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66">
         <f t="shared" si="0"/>
         <v>0.36503006153723033</v>
       </c>
@@ -15407,8 +15643,12 @@
         <f t="shared" si="1"/>
         <v>534.79980870854547</v>
       </c>
-    </row>
-    <row r="67" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W66" s="1">
+        <f t="shared" si="2"/>
+        <v>11822.117137256586</v>
+      </c>
+    </row>
+    <row r="67" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>-104.701343326084</v>
       </c>
@@ -15442,7 +15682,7 @@
       <c r="M67">
         <v>21.688773948738699</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O67">
         <f t="shared" si="0"/>
         <v>0.48035415059049186</v>
       </c>
@@ -15450,8 +15690,12 @@
         <f t="shared" si="1"/>
         <v>704.74389874605151</v>
       </c>
-    </row>
-    <row r="68" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W67" s="1">
+        <f t="shared" si="2"/>
+        <v>15578.84798586987</v>
+      </c>
+    </row>
+    <row r="68" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>-104.70124131711199</v>
       </c>
@@ -15485,7 +15729,7 @@
       <c r="M68">
         <v>30.367811102438999</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O68">
         <f t="shared" si="0"/>
         <v>1.0877602636972887</v>
       </c>
@@ -15493,8 +15737,12 @@
         <f t="shared" si="1"/>
         <v>1008.6023091679143</v>
       </c>
-    </row>
-    <row r="69" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W68" s="1">
+        <f t="shared" si="2"/>
+        <v>22295.846875272146</v>
+      </c>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>-104.701305977261</v>
       </c>
@@ -15528,7 +15776,7 @@
       <c r="M69">
         <v>37.152943676019198</v>
       </c>
-      <c r="O69" s="3">
+      <c r="O69">
         <f t="shared" si="0"/>
         <v>0.31127730816494742</v>
       </c>
@@ -15536,8 +15784,12 @@
         <f t="shared" si="1"/>
         <v>704.24609488567796</v>
       </c>
-    </row>
-    <row r="70" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W69" s="1">
+        <f t="shared" si="2"/>
+        <v>15567.843689583889</v>
+      </c>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>-104.701036365447</v>
       </c>
@@ -15571,16 +15823,20 @@
       <c r="M70">
         <v>34.658410531707602</v>
       </c>
-      <c r="O70" s="3">
-        <f t="shared" ref="O70:O132" si="2">I70*$P$4</f>
+      <c r="O70">
+        <f t="shared" ref="O70:O132" si="3">I70*$P$4</f>
         <v>0.37724659639456737</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" ref="U70:U132" si="3">F70*$V$4</f>
+        <f t="shared" ref="U70:U132" si="4">F70*$V$4</f>
         <v>457.20507761050101</v>
       </c>
-    </row>
-    <row r="71" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W70" s="1">
+        <f t="shared" ref="W70:W133" si="5">U70*V$4</f>
+        <v>10106.832304806439</v>
+      </c>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>-104.70109122153001</v>
       </c>
@@ -15614,16 +15870,20 @@
       <c r="M71">
         <v>36.436274228731698</v>
       </c>
-      <c r="O71" s="3">
-        <f t="shared" si="2"/>
+      <c r="O71">
+        <f t="shared" si="3"/>
         <v>0.59421225546087297</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>713.28554663230545</v>
       </c>
-    </row>
-    <row r="72" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W71" s="1">
+        <f t="shared" si="5"/>
+        <v>15767.666979841364</v>
+      </c>
+    </row>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>-104.701182959576</v>
       </c>
@@ -15657,16 +15917,20 @@
       <c r="M72">
         <v>25.029276408353901</v>
       </c>
-      <c r="O72" s="3">
-        <f t="shared" si="2"/>
+      <c r="O72">
+        <f t="shared" si="3"/>
         <v>0.44859115996141558</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>806.19296146912063</v>
       </c>
-    </row>
-    <row r="73" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W72" s="1">
+        <f t="shared" si="5"/>
+        <v>17821.449204956374</v>
+      </c>
+    </row>
+    <row r="73" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>-104.701250420888</v>
       </c>
@@ -15700,16 +15964,20 @@
       <c r="M73">
         <v>34.373405996221202</v>
       </c>
-      <c r="O73" s="3">
-        <f t="shared" si="2"/>
+      <c r="O73">
+        <f t="shared" si="3"/>
         <v>0.26192250734130584</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>630.98695766956621</v>
       </c>
-    </row>
-    <row r="74" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W73" s="1">
+        <f t="shared" si="5"/>
+        <v>13948.400138108685</v>
+      </c>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>-104.701185293878</v>
       </c>
@@ -15743,16 +16011,20 @@
       <c r="M74">
         <v>47.442159134372098</v>
       </c>
-      <c r="O74" s="3">
-        <f t="shared" si="2"/>
+      <c r="O74">
+        <f t="shared" si="3"/>
         <v>0.33961966903396934</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>581.68301696881917</v>
       </c>
-    </row>
-    <row r="75" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W74" s="1">
+        <f t="shared" si="5"/>
+        <v>12858.50266095712</v>
+      </c>
+    </row>
+    <row r="75" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>-104.701209570613</v>
       </c>
@@ -15786,16 +16058,20 @@
       <c r="M75">
         <v>27.059522924845002</v>
       </c>
-      <c r="O75" s="3">
-        <f t="shared" si="2"/>
+      <c r="O75">
+        <f t="shared" si="3"/>
         <v>0.25459258642690363</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>549.44277401091608</v>
       </c>
-    </row>
-    <row r="76" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W75" s="1">
+        <f t="shared" si="5"/>
+        <v>12145.809943840499</v>
+      </c>
+    </row>
+    <row r="76" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>-104.70117128806901</v>
       </c>
@@ -15829,16 +16105,20 @@
       <c r="M76">
         <v>39.089350581801298</v>
       </c>
-      <c r="O76" s="3">
-        <f t="shared" si="2"/>
+      <c r="O76">
+        <f t="shared" si="3"/>
         <v>0.10506219977309843</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>462.28530917438803</v>
       </c>
-    </row>
-    <row r="77" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W76" s="1">
+        <f t="shared" si="5"/>
+        <v>10219.134313248987</v>
+      </c>
+    </row>
+    <row r="77" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>-104.70143202953901</v>
       </c>
@@ -15872,16 +16152,20 @@
       <c r="M77">
         <v>25.5500787407797</v>
       </c>
-      <c r="O77" s="3">
-        <f t="shared" si="2"/>
+      <c r="O77">
+        <f t="shared" si="3"/>
         <v>0.60203083776956867</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>542.71682076391733</v>
       </c>
-    </row>
-    <row r="78" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W77" s="1">
+        <f t="shared" si="5"/>
+        <v>11997.128127110336</v>
+      </c>
+    </row>
+    <row r="78" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C78">
         <v>-104.701409853675</v>
       </c>
@@ -15915,16 +16199,20 @@
       <c r="M78">
         <v>32.319451345576702</v>
       </c>
-      <c r="O78" s="3">
-        <f t="shared" si="2"/>
+      <c r="O78">
+        <f t="shared" si="3"/>
         <v>0.25801321618695799</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>618.53222141816286</v>
       </c>
-    </row>
-    <row r="79" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W78" s="1">
+        <f t="shared" si="5"/>
+        <v>13673.079637839081</v>
+      </c>
+    </row>
+    <row r="79" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C79">
         <v>-104.701416156289</v>
       </c>
@@ -15958,16 +16246,20 @@
       <c r="M79">
         <v>37.5130415206118</v>
       </c>
-      <c r="O79" s="3">
-        <f t="shared" si="2"/>
+      <c r="O79">
+        <f t="shared" si="3"/>
         <v>0.29221951378750166</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>580.48173242302664</v>
       </c>
-    </row>
-    <row r="80" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W79" s="1">
+        <f t="shared" si="5"/>
+        <v>12831.947440883594</v>
+      </c>
+    </row>
+    <row r="80" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>-104.70117315551001</v>
       </c>
@@ -16001,16 +16293,20 @@
       <c r="M80">
         <v>29.704244003225799</v>
       </c>
-      <c r="O80" s="3">
-        <f t="shared" si="2"/>
+      <c r="O80">
+        <f t="shared" si="3"/>
         <v>0.42562407442962197</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>743.99424649732396</v>
       </c>
-    </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W80" s="1">
+        <f t="shared" si="5"/>
+        <v>16446.503884839127</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>-104.70143506413</v>
       </c>
@@ -16044,16 +16340,20 @@
       <c r="M81">
         <v>45.9094325180155</v>
       </c>
-      <c r="O81" s="3">
-        <f t="shared" si="2"/>
+      <c r="O81">
+        <f t="shared" si="3"/>
         <v>0.5155377709796225</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>616.27919330270151</v>
       </c>
-    </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W81" s="1">
+        <f t="shared" si="5"/>
+        <v>13623.274903692229</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>-104.701421291752</v>
       </c>
@@ -16087,16 +16387,20 @@
       <c r="M82">
         <v>30.883672808336001</v>
       </c>
-      <c r="O82" s="3">
-        <f t="shared" si="2"/>
+      <c r="O82">
+        <f t="shared" si="3"/>
         <v>0.20181715584320767</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>459.76315819451423</v>
       </c>
-    </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W82" s="1">
+        <f t="shared" si="5"/>
+        <v>10163.380433317883</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>-104.70139678158699</v>
       </c>
@@ -16130,16 +16434,20 @@
       <c r="M83">
         <v>28.244682711415901</v>
       </c>
-      <c r="O83" s="3">
-        <f t="shared" si="2"/>
+      <c r="O83">
+        <f t="shared" si="3"/>
         <v>0.31811856768505614</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>658.19948944707369</v>
       </c>
-    </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W83" s="1">
+        <f t="shared" si="5"/>
+        <v>14549.951845937243</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>-104.701311579585</v>
       </c>
@@ -16173,16 +16481,20 @@
       <c r="M84">
         <v>25.0222051120878</v>
       </c>
-      <c r="O84" s="3">
-        <f t="shared" si="2"/>
+      <c r="O84">
+        <f t="shared" si="3"/>
         <v>0.29173085239320817</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>509.76236044000547</v>
       </c>
-    </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W84" s="1">
+        <f t="shared" si="5"/>
+        <v>11268.647144506471</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C85">
         <v>-104.70140191705001</v>
       </c>
@@ -16216,20 +16528,27 @@
       <c r="M85">
         <v>23.8867047691271</v>
       </c>
-      <c r="O85" s="3">
-        <f t="shared" si="2"/>
+      <c r="O85">
+        <f t="shared" si="3"/>
         <v>0.6010535149809817</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>665.99569945383735</v>
       </c>
-    </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="O86" s="3"/>
+      <c r="W85" s="1">
+        <f t="shared" si="5"/>
+        <v>14722.292423524923</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.3">
       <c r="U86" s="1"/>
-    </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W86" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>4</v>
       </c>
@@ -16266,16 +16585,20 @@
       <c r="M87">
         <v>21.827155678044299</v>
       </c>
-      <c r="O87" s="3">
-        <f t="shared" si="2"/>
+      <c r="O87">
+        <f t="shared" si="3"/>
         <v>1.2617237200657681</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>724.53009481885545</v>
       </c>
-    </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W87" s="1">
+        <f t="shared" si="5"/>
+        <v>16016.23544163258</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C88">
         <v>-104.70117665696201</v>
       </c>
@@ -16309,16 +16632,20 @@
       <c r="M88">
         <v>21.925342940361499</v>
       </c>
-      <c r="O88" s="3">
-        <f t="shared" si="2"/>
+      <c r="O88">
+        <f t="shared" si="3"/>
         <v>0.7173549268228302</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>625.38632851760485</v>
       </c>
-    </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W88" s="1">
+        <f t="shared" si="5"/>
+        <v>13824.594383509202</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C89">
         <v>-104.70131321359599</v>
       </c>
@@ -16352,16 +16679,20 @@
       <c r="M89">
         <v>42.014507694387397</v>
       </c>
-      <c r="O89" s="3">
-        <f t="shared" si="2"/>
+      <c r="O89">
+        <f t="shared" si="3"/>
         <v>2.7785286879527331</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1976.6574441775415</v>
       </c>
-    </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W89" s="1">
+        <f t="shared" si="5"/>
+        <v>43695.370613029387</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C90">
         <v>-104.70128590226901</v>
       </c>
@@ -16395,16 +16726,20 @@
       <c r="M90">
         <v>26.190999990852202</v>
       </c>
-      <c r="O90" s="3">
-        <f t="shared" si="2"/>
+      <c r="O90">
+        <f t="shared" si="3"/>
         <v>1.0735890832627779</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>899.96192393477395</v>
       </c>
-    </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W90" s="1">
+        <f t="shared" si="5"/>
+        <v>19894.276532222877</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C91">
         <v>-104.701326285684</v>
       </c>
@@ -16438,16 +16773,20 @@
       <c r="M91">
         <v>28.337515180956199</v>
       </c>
-      <c r="O91" s="3">
-        <f t="shared" si="2"/>
+      <c r="O91">
+        <f t="shared" si="3"/>
         <v>1.713735509787238</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1150.5869603566312</v>
       </c>
-    </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W91" s="1">
+        <f t="shared" si="5"/>
+        <v>25434.515122179295</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C92">
         <v>-104.70132301766201</v>
       </c>
@@ -16481,16 +16820,20 @@
       <c r="M92">
         <v>31.767086803636801</v>
       </c>
-      <c r="O92" s="3">
-        <f t="shared" si="2"/>
+      <c r="O92">
+        <f t="shared" si="3"/>
         <v>0.62108863214701437</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1075.935134347179</v>
       </c>
-    </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W92" s="1">
+        <f t="shared" si="5"/>
+        <v>23784.28522825873</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>-104.701345660386</v>
       </c>
@@ -16524,16 +16867,20 @@
       <c r="M93">
         <v>25.545727408622</v>
       </c>
-      <c r="O93" s="3">
-        <f t="shared" si="2"/>
+      <c r="O93">
+        <f t="shared" si="3"/>
         <v>0.76573240485788485</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1021.5818560918317</v>
       </c>
-    </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W93" s="1">
+        <f t="shared" si="5"/>
+        <v>22582.768675961674</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>-104.701298274067</v>
       </c>
@@ -16567,16 +16914,20 @@
       <c r="M94">
         <v>36.093831888293899</v>
       </c>
-      <c r="O94" s="3">
-        <f t="shared" si="2"/>
+      <c r="O94">
+        <f t="shared" si="3"/>
         <v>3.1968228414679531</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1644.7623143333258</v>
       </c>
-    </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W94" s="1">
+        <f t="shared" si="5"/>
+        <v>36358.600781756621</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>-104.70132161708101</v>
       </c>
@@ -16610,16 +16961,20 @@
       <c r="M95">
         <v>18.673930660049201</v>
       </c>
-      <c r="O95" s="3">
-        <f t="shared" si="2"/>
+      <c r="O95">
+        <f t="shared" si="3"/>
         <v>0.67728469249076473</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>760.05253684869786</v>
       </c>
-    </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W95" s="1">
+        <f t="shared" si="5"/>
+        <v>16801.483423849171</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>-104.70124832001601</v>
       </c>
@@ -16653,16 +17008,20 @@
       <c r="M96">
         <v>14.145307787226599</v>
       </c>
-      <c r="O96" s="3">
-        <f t="shared" si="2"/>
+      <c r="O96">
+        <f t="shared" si="3"/>
         <v>0.83756562981902649</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>861.62014998165967</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W96" s="1">
+        <f t="shared" si="5"/>
+        <v>19046.705281181239</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C97">
         <v>-104.70131461417699</v>
       </c>
@@ -16696,16 +17055,20 @@
       <c r="M97">
         <v>44.979702533288901</v>
       </c>
-      <c r="O97" s="3">
-        <f t="shared" si="2"/>
+      <c r="O97">
+        <f t="shared" si="3"/>
         <v>0.73054878446875415</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1062.3296603338376</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W97" s="1">
+        <f t="shared" si="5"/>
+        <v>23483.526879294397</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>-104.70131998306999</v>
       </c>
@@ -16739,16 +17102,20 @@
       <c r="M98">
         <v>36.685540306777703</v>
       </c>
-      <c r="O98" s="3">
-        <f t="shared" si="2"/>
+      <c r="O98">
+        <f t="shared" si="3"/>
         <v>0.58101839781494902</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>878.65783615198029</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W98" s="1">
+        <f t="shared" si="5"/>
+        <v>19423.335037537636</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C99">
         <v>-104.701342625794</v>
       </c>
@@ -16782,16 +17149,20 @@
       <c r="M99">
         <v>21.959952629559599</v>
       </c>
-      <c r="O99" s="3">
-        <f t="shared" si="2"/>
+      <c r="O99">
+        <f t="shared" si="3"/>
         <v>0.68705792037663438</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>858.37212313929763</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W99" s="1">
+        <f t="shared" si="5"/>
+        <v>18974.905416689729</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C100">
         <v>-104.701349395268</v>
       </c>
@@ -16825,16 +17196,20 @@
       <c r="M100">
         <v>23.364277170929199</v>
       </c>
-      <c r="O100" s="3">
-        <f t="shared" si="2"/>
+      <c r="O100">
+        <f t="shared" si="3"/>
         <v>1.1591048272641371</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>832.69993926681434</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W100" s="1">
+        <f t="shared" si="5"/>
+        <v>18407.404157400597</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C101">
         <v>-104.70136970369001</v>
       </c>
@@ -16868,16 +17243,20 @@
       <c r="M101">
         <v>36.740532784442202</v>
       </c>
-      <c r="O101" s="3">
-        <f t="shared" si="2"/>
+      <c r="O101">
+        <f t="shared" si="3"/>
         <v>1.3281816696896815</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1003.1527986694856</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W101" s="1">
+        <f t="shared" si="5"/>
+        <v>22175.381702315728</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>-104.701292671743</v>
       </c>
@@ -16911,16 +17290,20 @@
       <c r="M102">
         <v>34.564025826843299</v>
       </c>
-      <c r="O102" s="3">
-        <f t="shared" si="2"/>
+      <c r="O102">
+        <f t="shared" si="3"/>
         <v>0.51602643237391599</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>860.45703774370031</v>
       </c>
-    </row>
-    <row r="103" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W102" s="1">
+        <f t="shared" si="5"/>
+        <v>19020.993886193763</v>
+      </c>
+    </row>
+    <row r="103" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C103">
         <v>-104.701340291492</v>
       </c>
@@ -16954,16 +17337,20 @@
       <c r="M103">
         <v>25.700661641399002</v>
       </c>
-      <c r="O103" s="3">
-        <f t="shared" si="2"/>
+      <c r="O103">
+        <f t="shared" si="3"/>
         <v>0.50967383424810075</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>888.46326782318363</v>
       </c>
-    </row>
-    <row r="104" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W103" s="1">
+        <f t="shared" si="5"/>
+        <v>19640.090840196317</v>
+      </c>
+    </row>
+    <row r="104" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C104">
         <v>-104.70131648161799</v>
       </c>
@@ -16997,16 +17384,20 @@
       <c r="M104">
         <v>36.547912693842498</v>
       </c>
-      <c r="O104" s="3">
-        <f t="shared" si="2"/>
+      <c r="O104">
+        <f t="shared" si="3"/>
         <v>0.38311053312608911</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>603.34664972170106</v>
       </c>
-    </row>
-    <row r="105" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W104" s="1">
+        <f t="shared" si="5"/>
+        <v>13337.392144185511</v>
+      </c>
+    </row>
+    <row r="105" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C105">
         <v>-104.701308311563</v>
       </c>
@@ -17040,16 +17431,20 @@
       <c r="M105">
         <v>16.559726505563201</v>
       </c>
-      <c r="O105" s="3">
-        <f t="shared" si="2"/>
+      <c r="O105">
+        <f t="shared" si="3"/>
         <v>0.28049164032445811</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>592.3401371616643</v>
       </c>
-    </row>
-    <row r="106" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W105" s="1">
+        <f t="shared" si="5"/>
+        <v>13094.085623430279</v>
+      </c>
+    </row>
+    <row r="106" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C106">
         <v>-104.70124832001601</v>
       </c>
@@ -17083,16 +17478,20 @@
       <c r="M106">
         <v>32.933213208629297</v>
       </c>
-      <c r="O106" s="3">
-        <f t="shared" si="2"/>
+      <c r="O106">
+        <f t="shared" si="3"/>
         <v>0.12656330112201158</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>473.78697427592385</v>
       </c>
-    </row>
-    <row r="107" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W106" s="1">
+        <f t="shared" si="5"/>
+        <v>10473.386521065233</v>
+      </c>
+    </row>
+    <row r="107" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C107">
         <v>-104.701256023211</v>
       </c>
@@ -17126,16 +17525,20 @@
       <c r="M107">
         <v>30.320587085720401</v>
       </c>
-      <c r="O107" s="3">
-        <f t="shared" si="2"/>
+      <c r="O107">
+        <f t="shared" si="3"/>
         <v>0.45787572645299174</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>577.10842747617448</v>
       </c>
-    </row>
-    <row r="108" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W107" s="1">
+        <f t="shared" si="5"/>
+        <v>12757.378217836045</v>
+      </c>
+    </row>
+    <row r="108" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C108">
         <v>-104.701307611272</v>
       </c>
@@ -17169,16 +17572,20 @@
       <c r="M108">
         <v>37.435494530898801</v>
       </c>
-      <c r="O108" s="3">
-        <f t="shared" si="2"/>
+      <c r="O108">
+        <f t="shared" si="3"/>
         <v>0.38653116288614353</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>822.50187507696239</v>
       </c>
-    </row>
-    <row r="109" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W108" s="1">
+        <f t="shared" si="5"/>
+        <v>18181.968943209271</v>
+      </c>
+    </row>
+    <row r="109" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C109">
         <v>-104.701337957191</v>
       </c>
@@ -17212,16 +17619,20 @@
       <c r="M109">
         <v>30.463396611908301</v>
       </c>
-      <c r="O109" s="3">
-        <f t="shared" si="2"/>
+      <c r="O109">
+        <f t="shared" si="3"/>
         <v>0.92503601939755964</v>
       </c>
       <c r="U109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>965.83389554543351</v>
       </c>
-    </row>
-    <row r="110" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W109" s="1">
+        <f t="shared" si="5"/>
+        <v>21350.421713582986</v>
+      </c>
+    </row>
+    <row r="110" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C110">
         <v>-104.70135546445201</v>
       </c>
@@ -17255,16 +17666,20 @@
       <c r="M110">
         <v>27.496918500102002</v>
       </c>
-      <c r="O110" s="3">
-        <f t="shared" si="2"/>
+      <c r="O110">
+        <f t="shared" si="3"/>
         <v>0.92601334218614662</v>
       </c>
       <c r="U110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>961.08568875056631</v>
       </c>
-    </row>
-    <row r="111" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W110" s="1">
+        <f t="shared" si="5"/>
+        <v>21245.459340734738</v>
+      </c>
+    </row>
+    <row r="111" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C111">
         <v>-104.70136923683</v>
       </c>
@@ -17298,16 +17713,20 @@
       <c r="M111">
         <v>42.823210665343296</v>
       </c>
-      <c r="O111" s="3">
-        <f t="shared" si="2"/>
+      <c r="O111">
+        <f t="shared" si="3"/>
         <v>0.22918219392364261</v>
       </c>
       <c r="U111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>516.5539356717594</v>
       </c>
-    </row>
-    <row r="112" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W111" s="1">
+        <f t="shared" si="5"/>
+        <v>11418.779580286831</v>
+      </c>
+    </row>
+    <row r="112" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C112">
         <v>-104.701326052254</v>
       </c>
@@ -17341,16 +17760,20 @@
       <c r="M112">
         <v>46.79566232082</v>
       </c>
-      <c r="O112" s="3">
-        <f t="shared" si="2"/>
+      <c r="O112">
+        <f t="shared" si="3"/>
         <v>0.9304112947347879</v>
       </c>
       <c r="U112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1320.9161796355779</v>
       </c>
-    </row>
-    <row r="113" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W112" s="1">
+        <f t="shared" si="5"/>
+        <v>29199.759517228373</v>
+      </c>
+    </row>
+    <row r="113" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C113">
         <v>-104.701341225213</v>
       </c>
@@ -17384,16 +17807,20 @@
       <c r="M113">
         <v>38.709207086175198</v>
       </c>
-      <c r="O113" s="3">
-        <f t="shared" si="2"/>
+      <c r="O113">
+        <f t="shared" si="3"/>
         <v>0.43832927068125249</v>
       </c>
       <c r="U113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>701.25389505066062</v>
       </c>
-    </row>
-    <row r="114" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W113" s="1">
+        <f t="shared" si="5"/>
+        <v>15501.699056822938</v>
+      </c>
+    </row>
+    <row r="114" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C114">
         <v>-104.701306444122</v>
       </c>
@@ -17427,16 +17854,20 @@
       <c r="M114">
         <v>42.446510957190704</v>
       </c>
-      <c r="O114" s="3">
-        <f t="shared" si="2"/>
+      <c r="O114">
+        <f t="shared" si="3"/>
         <v>0.54974406858016622</v>
       </c>
       <c r="U114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>763.14634724234134</v>
       </c>
-    </row>
-    <row r="115" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W114" s="1">
+        <f t="shared" si="5"/>
+        <v>16869.874227807082</v>
+      </c>
+    </row>
+    <row r="115" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C115">
         <v>-104.70131624818799</v>
       </c>
@@ -17470,16 +17901,20 @@
       <c r="M115">
         <v>29.554755531185201</v>
       </c>
-      <c r="O115" s="3">
-        <f t="shared" si="2"/>
+      <c r="O115">
+        <f t="shared" si="3"/>
         <v>0.39874769774348051</v>
       </c>
       <c r="U115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>658.93469613128332</v>
       </c>
-    </row>
-    <row r="116" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W115" s="1">
+        <f t="shared" si="5"/>
+        <v>14566.204094721343</v>
+      </c>
+    </row>
+    <row r="116" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C116">
         <v>-104.701302709239</v>
       </c>
@@ -17513,16 +17948,20 @@
       <c r="M116">
         <v>41.276268084396399</v>
       </c>
-      <c r="O116" s="3">
-        <f t="shared" si="2"/>
+      <c r="O116">
+        <f t="shared" si="3"/>
         <v>0.34694958994837155</v>
       </c>
       <c r="U116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>582.01089219269477</v>
       </c>
-    </row>
-    <row r="117" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W116" s="1">
+        <f t="shared" si="5"/>
+        <v>12865.750568005595</v>
+      </c>
+    </row>
+    <row r="117" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C117">
         <v>-104.70127539791299</v>
       </c>
@@ -17556,16 +17995,20 @@
       <c r="M117">
         <v>37.745422058829298</v>
       </c>
-      <c r="O117" s="3">
-        <f t="shared" si="2"/>
+      <c r="O117">
+        <f t="shared" si="3"/>
         <v>0.40412297308070882</v>
       </c>
       <c r="U117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>710.17645739115653</v>
       </c>
-    </row>
-    <row r="118" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W117" s="1">
+        <f t="shared" si="5"/>
+        <v>15698.938426463967</v>
+      </c>
+    </row>
+    <row r="118" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C118">
         <v>-104.70124318455299</v>
       </c>
@@ -17599,16 +18042,20 @@
       <c r="M118">
         <v>25.090944804961701</v>
       </c>
-      <c r="O118" s="3">
-        <f t="shared" si="2"/>
+      <c r="O118">
+        <f t="shared" si="3"/>
         <v>0.31958455186793661</v>
       </c>
       <c r="U118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>511.53598681762355</v>
       </c>
-    </row>
-    <row r="119" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W118" s="1">
+        <f t="shared" si="5"/>
+        <v>11307.854373926697</v>
+      </c>
+    </row>
+    <row r="119" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C119">
         <v>-104.701256956932</v>
       </c>
@@ -17642,16 +18089,20 @@
       <c r="M119">
         <v>24.3146557669751</v>
       </c>
-      <c r="O119" s="3">
-        <f t="shared" si="2"/>
+      <c r="O119">
+        <f t="shared" si="3"/>
         <v>0.36600738432581731</v>
       </c>
       <c r="U119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>490.53301055945627</v>
       </c>
-    </row>
-    <row r="120" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W119" s="1">
+        <f t="shared" si="5"/>
+        <v>10843.569156333451</v>
+      </c>
+    </row>
+    <row r="120" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C120">
         <v>-104.701263959836</v>
       </c>
@@ -17685,16 +18136,20 @@
       <c r="M120">
         <v>17.345911074010601</v>
       </c>
-      <c r="O120" s="3">
-        <f t="shared" si="2"/>
+      <c r="O120">
+        <f t="shared" si="3"/>
         <v>0.20474912420896857</v>
       </c>
       <c r="U120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>452.94575029472225</v>
       </c>
-    </row>
-    <row r="121" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W120" s="1">
+        <f t="shared" si="5"/>
+        <v>10012.676948665512</v>
+      </c>
+    </row>
+    <row r="121" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C121">
         <v>-104.701307844703</v>
       </c>
@@ -17728,16 +18183,20 @@
       <c r="M121">
         <v>28.9294363789563</v>
       </c>
-      <c r="O121" s="3">
-        <f t="shared" si="2"/>
+      <c r="O121">
+        <f t="shared" si="3"/>
         <v>0.360632108988589</v>
       </c>
       <c r="U121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>667.46845162716625</v>
       </c>
-    </row>
-    <row r="122" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W121" s="1">
+        <f t="shared" si="5"/>
+        <v>14754.848621982226</v>
+      </c>
+    </row>
+    <row r="122" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C122">
         <v>-104.701300141508</v>
       </c>
@@ -17771,16 +18230,20 @@
       <c r="M122">
         <v>42.888303944239603</v>
       </c>
-      <c r="O122" s="3">
-        <f t="shared" si="2"/>
+      <c r="O122">
+        <f t="shared" si="3"/>
         <v>2.5019463387826231</v>
       </c>
       <c r="U122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1259.2799061869136</v>
       </c>
-    </row>
-    <row r="123" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W122" s="1">
+        <f t="shared" si="5"/>
+        <v>27837.247353333423</v>
+      </c>
+    </row>
+    <row r="123" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C123">
         <v>-104.701309712144</v>
       </c>
@@ -17814,16 +18277,20 @@
       <c r="M123">
         <v>21.5473370501423</v>
       </c>
-      <c r="O123" s="3">
-        <f t="shared" si="2"/>
+      <c r="O123">
+        <f t="shared" si="3"/>
         <v>0.30199274167337131</v>
       </c>
       <c r="U123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>476.37202932445228</v>
       </c>
-    </row>
-    <row r="124" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W123" s="1">
+        <f t="shared" si="5"/>
+        <v>10530.530938644137</v>
+      </c>
+    </row>
+    <row r="124" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C124">
         <v>-104.701371337701</v>
       </c>
@@ -17857,16 +18324,20 @@
       <c r="M124">
         <v>50.8811264423301</v>
       </c>
-      <c r="O124" s="3">
-        <f t="shared" si="2"/>
+      <c r="O124">
+        <f t="shared" si="3"/>
         <v>0.39337242240625225</v>
       </c>
       <c r="U124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>707.17354790836839</v>
       </c>
-    </row>
-    <row r="125" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W124" s="1">
+        <f t="shared" si="5"/>
+        <v>15632.557049582347</v>
+      </c>
+    </row>
+    <row r="125" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C125">
         <v>-104.701420824892</v>
       </c>
@@ -17900,16 +18371,20 @@
       <c r="M125">
         <v>32.731995707688696</v>
       </c>
-      <c r="O125" s="3">
-        <f t="shared" si="2"/>
+      <c r="O125">
+        <f t="shared" si="3"/>
         <v>1.0613725484054408</v>
       </c>
       <c r="U125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1081.9314086535899</v>
       </c>
-    </row>
-    <row r="126" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W125" s="1">
+        <f t="shared" si="5"/>
+        <v>23916.836990774682</v>
+      </c>
+    </row>
+    <row r="126" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C126">
         <v>-104.70135943276399</v>
       </c>
@@ -17943,16 +18418,20 @@
       <c r="M126">
         <v>37.291951901277002</v>
       </c>
-      <c r="O126" s="3">
-        <f t="shared" si="2"/>
+      <c r="O126">
+        <f t="shared" si="3"/>
         <v>0.70709303754266706</v>
       </c>
       <c r="U126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>866.78510311186255</v>
       </c>
-    </row>
-    <row r="127" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W126" s="1">
+        <f t="shared" si="5"/>
+        <v>19160.880118044308</v>
+      </c>
+    </row>
+    <row r="127" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C127">
         <v>-104.70135709846301</v>
       </c>
@@ -17986,16 +18465,20 @@
       <c r="M127">
         <v>26.1821648662876</v>
       </c>
-      <c r="O127" s="3">
-        <f t="shared" si="2"/>
+      <c r="O127">
+        <f t="shared" si="3"/>
         <v>0.20670376978614249</v>
       </c>
       <c r="U127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>551.75506661705003</v>
       </c>
-    </row>
-    <row r="128" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W127" s="1">
+        <f t="shared" si="5"/>
+        <v>12196.924760263752</v>
+      </c>
+    </row>
+    <row r="128" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C128">
         <v>-104.701330720857</v>
       </c>
@@ -18029,16 +18512,20 @@
       <c r="M128">
         <v>14.2428703917964</v>
       </c>
-      <c r="O128" s="3">
-        <f t="shared" si="2"/>
+      <c r="O128">
+        <f t="shared" si="3"/>
         <v>0.23015951671222956</v>
       </c>
       <c r="U128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>506.3385727877033</v>
       </c>
-    </row>
-    <row r="129" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W128" s="1">
+        <f t="shared" si="5"/>
+        <v>11192.96196657727</v>
+      </c>
+    </row>
+    <row r="129" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C129">
         <v>-104.701383942929</v>
       </c>
@@ -18072,16 +18559,20 @@
       <c r="M129">
         <v>25.2005056307061</v>
       </c>
-      <c r="O129" s="3">
-        <f t="shared" si="2"/>
+      <c r="O129">
+        <f t="shared" si="3"/>
         <v>0.25312660224402317</v>
       </c>
       <c r="U129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>547.32740421356573</v>
       </c>
-    </row>
-    <row r="130" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W129" s="1">
+        <f t="shared" si="5"/>
+        <v>12099.048241376018</v>
+      </c>
+    </row>
+    <row r="130" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C130">
         <v>-104.70128613569899</v>
       </c>
@@ -18115,16 +18606,20 @@
       <c r="M130">
         <v>26.322879861202601</v>
       </c>
-      <c r="O130" s="3">
-        <f t="shared" si="2"/>
+      <c r="O130">
+        <f t="shared" si="3"/>
         <v>0.25068329527255578</v>
       </c>
       <c r="U130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>508.68466776395286</v>
       </c>
-    </row>
-    <row r="131" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W130" s="1">
+        <f t="shared" si="5"/>
+        <v>11244.824007611518</v>
+      </c>
+    </row>
+    <row r="131" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C131">
         <v>-104.70124155054199</v>
       </c>
@@ -18158,16 +18653,20 @@
       <c r="M131">
         <v>17.814169570170101</v>
       </c>
-      <c r="O131" s="3">
-        <f t="shared" si="2"/>
+      <c r="O131">
+        <f t="shared" si="3"/>
         <v>0.46373966318451354</v>
       </c>
       <c r="U131" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>766.85604453545022</v>
       </c>
-    </row>
-    <row r="132" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W131" s="1">
+        <f t="shared" si="5"/>
+        <v>16951.879634743938</v>
+      </c>
+    </row>
+    <row r="132" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C132">
         <v>-104.701226377583</v>
       </c>
@@ -18201,20 +18700,27 @@
       <c r="M132">
         <v>22.571548562174701</v>
       </c>
-      <c r="O132" s="3">
-        <f t="shared" si="2"/>
+      <c r="O132">
+        <f t="shared" si="3"/>
         <v>1.7894780259027276</v>
       </c>
       <c r="U132" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1359.0047934281474</v>
       </c>
-    </row>
-    <row r="133" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="O133" s="3"/>
+      <c r="W132" s="1">
+        <f t="shared" si="5"/>
+        <v>30041.734489019887</v>
+      </c>
+    </row>
+    <row r="133" spans="2:23" x14ac:dyDescent="0.3">
       <c r="U133" s="1"/>
-    </row>
-    <row r="134" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W133" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>3</v>
       </c>
@@ -18251,16 +18757,20 @@
       <c r="M134">
         <v>48.2167684772703</v>
       </c>
-      <c r="O134" s="3">
-        <f t="shared" ref="O134:O177" si="4">I134*$P$4</f>
+      <c r="O134">
+        <f t="shared" ref="O134:O177" si="6">I134*$P$4</f>
         <v>0.60398548334674262</v>
       </c>
       <c r="U134" s="1">
-        <f t="shared" ref="U134:U177" si="5">F134*$V$4</f>
+        <f t="shared" ref="U134:U177" si="7">F134*$V$4</f>
         <v>859.23860981762323</v>
       </c>
-    </row>
-    <row r="135" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W134" s="1">
+        <f t="shared" ref="W134:W177" si="8">U134*V$4</f>
+        <v>18994.05969992288</v>
+      </c>
+    </row>
+    <row r="135" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C135">
         <v>-104.701304810111</v>
       </c>
@@ -18294,16 +18804,20 @@
       <c r="M135">
         <v>39.858783568099</v>
       </c>
-      <c r="O135" s="3">
-        <f t="shared" si="4"/>
+      <c r="O135">
+        <f t="shared" si="6"/>
         <v>1.0862942795144084</v>
       </c>
       <c r="U135" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1126.2676139625205</v>
       </c>
-    </row>
-    <row r="136" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W135" s="1">
+        <f t="shared" si="8"/>
+        <v>24896.919264643413</v>
+      </c>
+    </row>
+    <row r="136" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C136">
         <v>-104.701302475809</v>
       </c>
@@ -18337,16 +18851,20 @@
       <c r="M136">
         <v>23.251253911347401</v>
       </c>
-      <c r="O136" s="3">
-        <f t="shared" si="4"/>
+      <c r="O136">
+        <f t="shared" si="6"/>
         <v>0.68656925898234089</v>
       </c>
       <c r="U136" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>654.36197209613636</v>
       </c>
-    </row>
-    <row r="137" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W136" s="1">
+        <f t="shared" si="8"/>
+        <v>14465.12088881968</v>
+      </c>
+    </row>
+    <row r="137" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C137">
         <v>-104.701272129891</v>
       </c>
@@ -18380,16 +18898,20 @@
       <c r="M137">
         <v>23.915355670939299</v>
       </c>
-      <c r="O137" s="3">
-        <f t="shared" si="4"/>
+      <c r="O137">
+        <f t="shared" si="6"/>
         <v>1.1591048272641371</v>
       </c>
       <c r="U137" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1050.1528768652902</v>
       </c>
-    </row>
-    <row r="138" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W137" s="1">
+        <f t="shared" si="8"/>
+        <v>23214.350716221703</v>
+      </c>
+    </row>
+    <row r="138" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C138">
         <v>-104.70128613569899</v>
       </c>
@@ -18423,16 +18945,20 @@
       <c r="M138">
         <v>33.023630277545998</v>
       </c>
-      <c r="O138" s="3">
-        <f t="shared" si="4"/>
+      <c r="O138">
+        <f t="shared" si="6"/>
         <v>1.1043747511032671</v>
       </c>
       <c r="U138" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1010.3318862571216</v>
       </c>
-    </row>
-    <row r="139" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W138" s="1">
+        <f t="shared" si="8"/>
+        <v>22334.080364913625</v>
+      </c>
+    </row>
+    <row r="139" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C139">
         <v>-104.701245752285</v>
       </c>
@@ -18466,16 +18992,20 @@
       <c r="M139">
         <v>18.6345349265065</v>
       </c>
-      <c r="O139" s="3">
-        <f t="shared" si="4"/>
+      <c r="O139">
+        <f t="shared" si="6"/>
         <v>0.27853699474728422</v>
       </c>
       <c r="U139" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>556.53705437670055</v>
       </c>
-    </row>
-    <row r="140" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W139" s="1">
+        <f t="shared" si="8"/>
+        <v>12302.633884543422</v>
+      </c>
+    </row>
+    <row r="140" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C140">
         <v>-104.70128660256</v>
       </c>
@@ -18509,16 +19039,20 @@
       <c r="M140">
         <v>21.479450242341699</v>
       </c>
-      <c r="O140" s="3">
-        <f t="shared" si="4"/>
+      <c r="O140">
+        <f t="shared" si="6"/>
         <v>0.2267388869521752</v>
       </c>
       <c r="U140" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>500.11815185759588</v>
       </c>
-    </row>
-    <row r="141" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W140" s="1">
+        <f t="shared" si="8"/>
+        <v>11055.455288973259</v>
+      </c>
+    </row>
+    <row r="141" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C141">
         <v>-104.70128590226901</v>
       </c>
@@ -18552,16 +19086,20 @@
       <c r="M141">
         <v>21.873208178831799</v>
       </c>
-      <c r="O141" s="3">
-        <f t="shared" si="4"/>
+      <c r="O141">
+        <f t="shared" si="6"/>
         <v>0.16076959872255525</v>
       </c>
       <c r="U141" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>475.87236090757347</v>
       </c>
-    </row>
-    <row r="142" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W141" s="1">
+        <f t="shared" si="8"/>
+        <v>10519.485425055802</v>
+      </c>
+    </row>
+    <row r="142" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C142">
         <v>-104.70128006651601</v>
       </c>
@@ -18595,16 +19133,20 @@
       <c r="M142">
         <v>46.783231032999403</v>
       </c>
-      <c r="O142" s="3">
-        <f t="shared" si="4"/>
+      <c r="O142">
+        <f t="shared" si="6"/>
         <v>0.20963573815190337</v>
       </c>
       <c r="U142" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>472.12326457977775</v>
       </c>
-    </row>
-    <row r="143" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W142" s="1">
+        <f t="shared" si="8"/>
+        <v>10436.609075393131</v>
+      </c>
+    </row>
+    <row r="143" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C143">
         <v>-104.701331654577</v>
       </c>
@@ -18638,16 +19180,20 @@
       <c r="M143">
         <v>21.522499489393699</v>
       </c>
-      <c r="O143" s="3">
-        <f t="shared" si="4"/>
+      <c r="O143">
+        <f t="shared" si="6"/>
         <v>0.26729778267853416</v>
       </c>
       <c r="U143" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>595.38906099986173</v>
       </c>
-    </row>
-    <row r="144" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W143" s="1">
+        <f t="shared" si="8"/>
+        <v>13161.484179246494</v>
+      </c>
+    </row>
+    <row r="144" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C144">
         <v>-104.701380908337</v>
       </c>
@@ -18681,16 +19227,20 @@
       <c r="M144">
         <v>15.282718753036299</v>
       </c>
-      <c r="O144" s="3">
-        <f t="shared" si="4"/>
+      <c r="O144">
+        <f t="shared" si="6"/>
         <v>0.26192250734130584</v>
       </c>
       <c r="U144" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>572.70582144105799</v>
       </c>
-    </row>
-    <row r="145" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W144" s="1">
+        <f t="shared" si="8"/>
+        <v>12660.055587182853</v>
+      </c>
+    </row>
+    <row r="145" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C145">
         <v>-104.70123571478899</v>
       </c>
@@ -18724,16 +19274,20 @@
       <c r="M145">
         <v>20.014549750483798</v>
       </c>
-      <c r="O145" s="3">
-        <f t="shared" si="4"/>
+      <c r="O145">
+        <f t="shared" si="6"/>
         <v>0.29368549797038213</v>
       </c>
       <c r="U145" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>489.87725461876022</v>
       </c>
-    </row>
-    <row r="146" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W145" s="1">
+        <f t="shared" si="8"/>
+        <v>10829.073220811184</v>
+      </c>
+    </row>
+    <row r="146" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C146">
         <v>-104.701249720597</v>
       </c>
@@ -18767,16 +19321,20 @@
       <c r="M146">
         <v>19.551286410392699</v>
       </c>
-      <c r="O146" s="3">
-        <f t="shared" si="4"/>
+      <c r="O146">
+        <f t="shared" si="6"/>
         <v>0.45543241948152435</v>
       </c>
       <c r="U146" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>624.69630417624444</v>
       </c>
-    </row>
-    <row r="147" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W146" s="1">
+        <f t="shared" si="8"/>
+        <v>13809.34092145053</v>
+      </c>
+    </row>
+    <row r="147" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C147">
         <v>-104.70127376390199</v>
       </c>
@@ -18810,16 +19368,20 @@
       <c r="M147">
         <v>14.6754649740546</v>
       </c>
-      <c r="O147" s="3">
-        <f t="shared" si="4"/>
+      <c r="O147">
+        <f t="shared" si="6"/>
         <v>0.25459258642690363</v>
       </c>
       <c r="U147" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>518.18501681078453</v>
       </c>
-    </row>
-    <row r="148" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W147" s="1">
+        <f t="shared" si="8"/>
+        <v>11454.835749290502</v>
+      </c>
+    </row>
+    <row r="148" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C148">
         <v>-104.701242017402</v>
       </c>
@@ -18853,16 +19415,20 @@
       <c r="M148">
         <v>25.0240951018638</v>
       </c>
-      <c r="O148" s="3">
-        <f t="shared" si="4"/>
+      <c r="O148">
+        <f t="shared" si="6"/>
         <v>0.75351587000054776</v>
       </c>
       <c r="U148" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>890.64111390597907</v>
       </c>
-    </row>
-    <row r="149" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W148" s="1">
+        <f t="shared" si="8"/>
+        <v>19688.233623866898</v>
+      </c>
+    </row>
+    <row r="149" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C149">
         <v>-104.701370870841</v>
       </c>
@@ -18896,16 +19462,20 @@
       <c r="M149">
         <v>19.370265203122901</v>
       </c>
-      <c r="O149" s="3">
-        <f t="shared" si="4"/>
+      <c r="O149">
+        <f t="shared" si="6"/>
         <v>0.81557586707581986</v>
       </c>
       <c r="U149" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>949.59698092659494</v>
       </c>
-    </row>
-    <row r="150" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W149" s="1">
+        <f t="shared" si="8"/>
+        <v>20991.493562439697</v>
+      </c>
+    </row>
+    <row r="150" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C150">
         <v>-104.70133562289</v>
       </c>
@@ -18939,16 +19509,20 @@
       <c r="M150">
         <v>39.342117251410698</v>
       </c>
-      <c r="O150" s="3">
-        <f t="shared" si="4"/>
+      <c r="O150">
+        <f t="shared" si="6"/>
         <v>0.19644188050597938</v>
       </c>
       <c r="U150" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>486.95802415318292</v>
       </c>
-    </row>
-    <row r="151" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W150" s="1">
+        <f t="shared" si="8"/>
+        <v>10764.541626085967</v>
+      </c>
+    </row>
+    <row r="151" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C151">
         <v>-104.70124155054199</v>
       </c>
@@ -18982,16 +19556,20 @@
       <c r="M151">
         <v>25.795826135382299</v>
       </c>
-      <c r="O151" s="3">
-        <f t="shared" si="4"/>
+      <c r="O151">
+        <f t="shared" si="6"/>
         <v>0.22722754834646869</v>
       </c>
       <c r="U151" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>443.39987973943209</v>
       </c>
-    </row>
-    <row r="152" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W151" s="1">
+        <f t="shared" si="8"/>
+        <v>9801.6589227723289</v>
+      </c>
+    </row>
+    <row r="152" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C152">
         <v>-104.70135616474199</v>
       </c>
@@ -19025,16 +19603,20 @@
       <c r="M152">
         <v>35.945726188033497</v>
       </c>
-      <c r="O152" s="3">
-        <f t="shared" si="4"/>
+      <c r="O152">
+        <f t="shared" si="6"/>
         <v>0.39239509961766528</v>
       </c>
       <c r="U152" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>754.54951880128715</v>
       </c>
-    </row>
-    <row r="153" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W152" s="1">
+        <f t="shared" si="8"/>
+        <v>16679.835429766994</v>
+      </c>
+    </row>
+    <row r="153" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C153">
         <v>-104.701376473165</v>
       </c>
@@ -19068,16 +19650,20 @@
       <c r="M153">
         <v>18.779474958039099</v>
       </c>
-      <c r="O153" s="3">
-        <f t="shared" si="4"/>
+      <c r="O153">
+        <f t="shared" si="6"/>
         <v>0.20963573815190337</v>
       </c>
       <c r="U153" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>457.9343745444462</v>
       </c>
-    </row>
-    <row r="154" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W153" s="1">
+        <f t="shared" si="8"/>
+        <v>10122.953914501406</v>
+      </c>
+    </row>
+    <row r="154" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C154">
         <v>-104.701232213336</v>
       </c>
@@ -19111,16 +19697,20 @@
       <c r="M154">
         <v>7.2317854575184901</v>
       </c>
-      <c r="O154" s="3">
-        <f t="shared" si="4"/>
+      <c r="O154">
+        <f t="shared" si="6"/>
         <v>1.3697178882046275</v>
       </c>
       <c r="U154" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1060.6331034179725</v>
       </c>
-    </row>
-    <row r="155" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W154" s="1">
+        <f t="shared" si="8"/>
+        <v>23446.023323266931</v>
+      </c>
+    </row>
+    <row r="155" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C155">
         <v>-104.701231746476</v>
       </c>
@@ -19154,16 +19744,20 @@
       <c r="M155">
         <v>25.0208192212264</v>
       </c>
-      <c r="O155" s="3">
-        <f t="shared" si="4"/>
+      <c r="O155">
+        <f t="shared" si="6"/>
         <v>0.21061306094049034</v>
       </c>
       <c r="U155" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>487.93712692648404</v>
       </c>
-    </row>
-    <row r="156" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W155" s="1">
+        <f t="shared" si="8"/>
+        <v>10786.185365457024</v>
+      </c>
+    </row>
+    <row r="156" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C156">
         <v>-104.70128590226901</v>
       </c>
@@ -19197,16 +19791,20 @@
       <c r="M156">
         <v>22.352255604641499</v>
       </c>
-      <c r="O156" s="3">
-        <f t="shared" si="4"/>
+      <c r="O156">
+        <f t="shared" si="6"/>
         <v>0.17640676333994665</v>
       </c>
       <c r="U156" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>469.02116896904545</v>
       </c>
-    </row>
-    <row r="157" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W156" s="1">
+        <f t="shared" si="8"/>
+        <v>10368.035121020172</v>
+      </c>
+    </row>
+    <row r="157" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C157">
         <v>-104.701370870841</v>
       </c>
@@ -19240,20 +19838,27 @@
       <c r="M157">
         <v>35.8350369182496</v>
       </c>
-      <c r="O157" s="3">
-        <f t="shared" si="4"/>
+      <c r="O157">
+        <f t="shared" si="6"/>
         <v>0.25556990921549061</v>
       </c>
       <c r="U157" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>538.22194556955571</v>
       </c>
-    </row>
-    <row r="158" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="O158" s="3"/>
+      <c r="W157" s="1">
+        <f t="shared" si="8"/>
+        <v>11897.765823310314</v>
+      </c>
+    </row>
+    <row r="158" spans="2:23" x14ac:dyDescent="0.3">
       <c r="U158" s="1"/>
-    </row>
-    <row r="159" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W158" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>2</v>
       </c>
@@ -19290,16 +19895,20 @@
       <c r="M159">
         <v>15.6200286428342</v>
       </c>
-      <c r="O159" s="3">
-        <f t="shared" si="4"/>
+      <c r="O159">
+        <f t="shared" si="6"/>
         <v>0.51651509376820948</v>
       </c>
       <c r="U159" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>650.70014248224447</v>
       </c>
-    </row>
-    <row r="160" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W159" s="1">
+        <f t="shared" si="8"/>
+        <v>14384.173629813276</v>
+      </c>
+    </row>
+    <row r="160" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C160">
         <v>-104.70064560338101</v>
       </c>
@@ -19333,16 +19942,20 @@
       <c r="M160">
         <v>15.353880532446301</v>
       </c>
-      <c r="O160" s="3">
-        <f t="shared" si="4"/>
+      <c r="O160">
+        <f t="shared" si="6"/>
         <v>0.72810547749728671</v>
       </c>
       <c r="U160" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>961.94250649970741</v>
       </c>
-    </row>
-    <row r="161" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W160" s="1">
+        <f t="shared" si="8"/>
+        <v>21264.399885646464</v>
+      </c>
+    </row>
+    <row r="161" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C161">
         <v>-104.700778425132</v>
       </c>
@@ -19376,16 +19989,20 @@
       <c r="M161">
         <v>16.924765946595301</v>
       </c>
-      <c r="O161" s="3">
-        <f t="shared" si="4"/>
+      <c r="O161">
+        <f t="shared" si="6"/>
         <v>0.61962264796413402</v>
       </c>
       <c r="U161" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>696.49981690919276</v>
       </c>
-    </row>
-    <row r="162" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W161" s="1">
+        <f t="shared" si="8"/>
+        <v>15396.606893824925</v>
+      </c>
+    </row>
+    <row r="162" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C162">
         <v>-104.700845186153</v>
       </c>
@@ -19419,16 +20036,20 @@
       <c r="M162">
         <v>41.240194158172997</v>
       </c>
-      <c r="O162" s="3">
-        <f t="shared" si="4"/>
+      <c r="O162">
+        <f t="shared" si="6"/>
         <v>0.60838343589538391</v>
       </c>
       <c r="U162" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>742.35414517585423</v>
       </c>
-    </row>
-    <row r="163" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W162" s="1">
+        <f t="shared" si="8"/>
+        <v>16410.248318506357</v>
+      </c>
+    </row>
+    <row r="163" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C163">
         <v>-104.700813673084</v>
       </c>
@@ -19462,16 +20083,20 @@
       <c r="M163">
         <v>32.409791037413903</v>
       </c>
-      <c r="O163" s="3">
-        <f t="shared" si="4"/>
+      <c r="O163">
+        <f t="shared" si="6"/>
         <v>1.728884013010336</v>
       </c>
       <c r="U163" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1092.2083875328058</v>
       </c>
-    </row>
-    <row r="164" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W163" s="1">
+        <f t="shared" si="8"/>
+        <v>24144.016668382632</v>
+      </c>
+    </row>
+    <row r="164" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C164">
         <v>-104.700970071279</v>
       </c>
@@ -19505,16 +20130,20 @@
       <c r="M164">
         <v>31.183769587837201</v>
       </c>
-      <c r="O164" s="3">
-        <f t="shared" si="4"/>
+      <c r="O164">
+        <f t="shared" si="6"/>
         <v>0.53068627420272041</v>
       </c>
       <c r="U164" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>842.78815168650999</v>
       </c>
-    </row>
-    <row r="165" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W164" s="1">
+        <f t="shared" si="8"/>
+        <v>18630.411022753022</v>
+      </c>
+    </row>
+    <row r="165" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C165">
         <v>-104.700963535235</v>
       </c>
@@ -19548,16 +20177,20 @@
       <c r="M165">
         <v>12.841287207506401</v>
       </c>
-      <c r="O165" s="3">
-        <f t="shared" si="4"/>
+      <c r="O165">
+        <f t="shared" si="6"/>
         <v>0.70660437614837357</v>
       </c>
       <c r="U165" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>850.07263091425239</v>
       </c>
-    </row>
-    <row r="166" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W165" s="1">
+        <f t="shared" si="8"/>
+        <v>18791.439439951308</v>
+      </c>
+    </row>
+    <row r="166" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C166">
         <v>-104.70068762080599</v>
       </c>
@@ -19591,16 +20224,20 @@
       <c r="M166">
         <v>20.767313535650398</v>
       </c>
-      <c r="O166" s="3">
-        <f t="shared" si="4"/>
+      <c r="O166">
+        <f t="shared" si="6"/>
         <v>2.3744057148720246</v>
       </c>
       <c r="U166" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1213.7841372552948</v>
       </c>
-    </row>
-    <row r="167" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W166" s="1">
+        <f t="shared" si="8"/>
+        <v>26831.532129055402</v>
+      </c>
+    </row>
+    <row r="167" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C167">
         <v>-104.700625528389</v>
       </c>
@@ -19634,16 +20271,20 @@
       <c r="M167">
         <v>19.6217025479942</v>
       </c>
-      <c r="O167" s="3">
-        <f t="shared" si="4"/>
+      <c r="O167">
+        <f t="shared" si="6"/>
         <v>0.20963573815190337</v>
       </c>
       <c r="U167" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>499.22637069624187</v>
       </c>
-    </row>
-    <row r="168" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W167" s="1">
+        <f t="shared" si="8"/>
+        <v>11035.74185381743</v>
+      </c>
+    </row>
+    <row r="168" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C168">
         <v>-104.700633231583</v>
       </c>
@@ -19677,16 +20318,20 @@
       <c r="M168">
         <v>30.164740215264001</v>
       </c>
-      <c r="O168" s="3">
-        <f t="shared" si="4"/>
+      <c r="O168">
+        <f t="shared" si="6"/>
         <v>0.35770014062282812</v>
       </c>
       <c r="U168" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>613.87627307932974</v>
       </c>
-    </row>
-    <row r="169" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W168" s="1">
+        <f t="shared" si="8"/>
+        <v>13570.156701535829</v>
+      </c>
+    </row>
+    <row r="169" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C169">
         <v>-104.700631364142</v>
       </c>
@@ -19720,16 +20365,20 @@
       <c r="M169">
         <v>32.824426338091897</v>
       </c>
-      <c r="O169" s="3">
-        <f t="shared" si="4"/>
+      <c r="O169">
+        <f t="shared" si="6"/>
         <v>0.31420927653070829</v>
       </c>
       <c r="U169" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>486.77489629384723</v>
       </c>
-    </row>
-    <row r="170" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W169" s="1">
+        <f t="shared" si="8"/>
+        <v>10760.493458960796</v>
+      </c>
+    </row>
+    <row r="170" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C170">
         <v>-104.70082347715</v>
       </c>
@@ -19763,16 +20412,20 @@
       <c r="M170">
         <v>10.982760160575801</v>
       </c>
-      <c r="O170" s="3">
-        <f t="shared" si="4"/>
+      <c r="O170">
+        <f t="shared" si="6"/>
         <v>0.49012737847636151</v>
       </c>
       <c r="U170" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>767.99086594159701</v>
       </c>
-    </row>
-    <row r="171" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W170" s="1">
+        <f t="shared" si="8"/>
+        <v>16976.965641460603</v>
+      </c>
+    </row>
+    <row r="171" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C171">
         <v>-104.700647003962</v>
       </c>
@@ -19806,16 +20459,20 @@
       <c r="M171">
         <v>24.150867771714001</v>
       </c>
-      <c r="O171" s="3">
-        <f t="shared" si="4"/>
+      <c r="O171">
+        <f t="shared" si="6"/>
         <v>0.34646092855407806</v>
       </c>
       <c r="U171" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>546.46842688829327</v>
       </c>
-    </row>
-    <row r="172" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W171" s="1">
+        <f t="shared" si="8"/>
+        <v>12080.059957550448</v>
+      </c>
+    </row>
+    <row r="172" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C172">
         <v>-104.700658675469</v>
       </c>
@@ -19849,16 +20506,20 @@
       <c r="M172">
         <v>26.02444488271</v>
       </c>
-      <c r="O172" s="3">
-        <f t="shared" si="4"/>
+      <c r="O172">
+        <f t="shared" si="6"/>
         <v>0.32007321326223009</v>
       </c>
       <c r="U172" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>598.86597033316571</v>
       </c>
-    </row>
-    <row r="173" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W172" s="1">
+        <f t="shared" si="8"/>
+        <v>13238.34364842469</v>
+      </c>
+    </row>
+    <row r="173" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C173">
         <v>-104.70074994665499</v>
       </c>
@@ -19892,16 +20553,20 @@
       <c r="M173">
         <v>23.170590334541799</v>
       </c>
-      <c r="O173" s="3">
-        <f t="shared" si="4"/>
+      <c r="O173">
+        <f t="shared" si="6"/>
         <v>0.21989762743206648</v>
       </c>
       <c r="U173" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>492.04708755195281</v>
       </c>
-    </row>
-    <row r="174" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W173" s="1">
+        <f t="shared" si="8"/>
+        <v>10877.038868305384</v>
+      </c>
+    </row>
+    <row r="174" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C174">
         <v>-104.700976373893</v>
       </c>
@@ -19935,16 +20600,20 @@
       <c r="M174">
         <v>29.782304202139201</v>
       </c>
-      <c r="O174" s="3">
-        <f t="shared" si="4"/>
+      <c r="O174">
+        <f t="shared" si="6"/>
         <v>0.72663949331440636</v>
       </c>
       <c r="U174" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>588.94445109295873</v>
       </c>
-    </row>
-    <row r="175" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W174" s="1">
+        <f t="shared" si="8"/>
+        <v>13019.021650310076</v>
+      </c>
+    </row>
+    <row r="175" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C175">
         <v>-104.700704427777</v>
       </c>
@@ -19978,16 +20647,20 @@
       <c r="M175">
         <v>11.1737857237501</v>
       </c>
-      <c r="O175" s="3">
-        <f t="shared" si="4"/>
+      <c r="O175">
+        <f t="shared" si="6"/>
         <v>0.52042438492255727</v>
       </c>
       <c r="U175" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>635.44768836271851</v>
       </c>
-    </row>
-    <row r="176" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W175" s="1">
+        <f t="shared" si="8"/>
+        <v>14047.007654254867</v>
+      </c>
+    </row>
+    <row r="176" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C176">
         <v>-104.70087646579201</v>
       </c>
@@ -20021,16 +20694,20 @@
       <c r="M176">
         <v>16.534264882666498</v>
       </c>
-      <c r="O176" s="3">
-        <f t="shared" si="4"/>
+      <c r="O176">
+        <f t="shared" si="6"/>
         <v>0.27804833335299073</v>
       </c>
       <c r="U176" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>549.85260766661088</v>
       </c>
-    </row>
-    <row r="177" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="W176" s="1">
+        <f t="shared" si="8"/>
+        <v>12154.869598323388</v>
+      </c>
+    </row>
+    <row r="177" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C177">
         <v>-104.70082417744</v>
       </c>
@@ -20064,13 +20741,17 @@
       <c r="M177">
         <v>38.192338354328299</v>
       </c>
-      <c r="O177" s="3">
-        <f t="shared" si="4"/>
+      <c r="O177">
+        <f t="shared" si="6"/>
         <v>4.0334111484983923</v>
       </c>
       <c r="U177" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1945.7389966885728</v>
+      </c>
+      <c r="W177" s="1">
+        <f t="shared" si="8"/>
+        <v>43011.89709272395</v>
       </c>
     </row>
   </sheetData>
